--- a/data/hotels_by_city/Houston/Houston_shard_606.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_606.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="445">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d596014-Reviews-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Staybridge-Suites-Houston-West-Energy-Corridor.h1376261.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1231 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r593871721-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>596014</t>
+  </si>
+  <si>
+    <t>593871721</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>surprisingly good</t>
+  </si>
+  <si>
+    <t>one of the rare occasions, when the overall experience in real life is much better than it seemed online - and this is because i guess the photos were taken before the renovations.the staff was really friendly and accomodating, and the value was excellent.most of the public places were nicely updated in the last years, however the suite itself was a bit dated, but was well-equipped and had a good, spacious layout. the pool and the garden lounge was really amazing and well-maintained.location is pretty good for doing stuff in the energy corridor area. all of the large company hqs are within a 10-min drive, and there are a few nice restaurants in walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>one of the rare occasions, when the overall experience in real life is much better than it seemed online - and this is because i guess the photos were taken before the renovations.the staff was really friendly and accomodating, and the value was excellent.most of the public places were nicely updated in the last years, however the suite itself was a bit dated, but was well-equipped and had a good, spacious layout. the pool and the garden lounge was really amazing and well-maintained.location is pretty good for doing stuff in the energy corridor area. all of the large company hqs are within a 10-min drive, and there are a few nice restaurants in walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r591413971-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>591413971</t>
+  </si>
+  <si>
+    <t>06/28/2018</t>
+  </si>
+  <si>
+    <t>Nice room Friendly Staff</t>
+  </si>
+  <si>
+    <t>I stayed in the staybridge suites for 4 days during a business trip to Houston. The rooms are big, clean and comfortable with a nice comfy bed, a sofa, a fridge, cooker and microwave. The staff are extremely friendly and helpful.The only negatives are the “power” of the shower, the water nearly just trickles out, and the breakfast is full if fatty american food and preserved food and not enough other options. However the coffee is very very good. All in all I would definatly stay here again during the next visit to Houston.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r580418409-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>580418409</t>
+  </si>
+  <si>
+    <t>05/15/2018</t>
+  </si>
+  <si>
+    <t>Very worthwhile</t>
+  </si>
+  <si>
+    <t>What a great value!  Very clean; wonderful filling breakfast; very nice gym.  Staff was welcoming.  Lots of restaurants within walking and/or driving distance on Eldrige with great access to I 10 to the north; major streets to the south.  Excellent, excellent value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r571342896-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>571342896</t>
+  </si>
+  <si>
+    <t>04/05/2018</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>The room is spacious and clean. A couple of complaints, but more it’s a location issue. The room is next to an exit and the noise level with people entering and exiting is an issue. Second, problem is the traffic. Please give yourself A LOT of extra time in the morning and evening during rush hour traffic. The sheriff department has deputies present to direct traffic at each intersection did to traffic congestion. The numbers of people leaving work in the high rises is the problem. I’m a tourist, and obviously don’t know if there’s a “backwater.  Just be prepared. Breakfast is a simple continental breakfast. Nothing fancy, but okay. There are a few restaurants within walking distance and a CVS.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>jonlau828, General Manager at Staybridge Suites Houston West / Energy Corridor, responded to this reviewResponded April 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 6, 2018</t>
+  </si>
+  <si>
+    <t>The room is spacious and clean. A couple of complaints, but more it’s a location issue. The room is next to an exit and the noise level with people entering and exiting is an issue. Second, problem is the traffic. Please give yourself A LOT of extra time in the morning and evening during rush hour traffic. The sheriff department has deputies present to direct traffic at each intersection did to traffic congestion. The numbers of people leaving work in the high rises is the problem. I’m a tourist, and obviously don’t know if there’s a “backwater.  Just be prepared. Breakfast is a simple continental breakfast. Nothing fancy, but okay. There are a few restaurants within walking distance and a CVS.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r563973569-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>563973569</t>
+  </si>
+  <si>
+    <t>03/03/2018</t>
+  </si>
+  <si>
+    <t>Wonderful Suite-Super close to Everything</t>
+  </si>
+  <si>
+    <t>Great hotel - Wonderful Breakfast- Great Value!!Easy access from the multitude of highways surrounding the city of Houston. Exceptional outdoor pool, &amp; beautiful outdoor enclosed area with tables and chairs. It was an awesome hotel!</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r557700330-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>557700330</t>
+  </si>
+  <si>
+    <t>02/01/2018</t>
+  </si>
+  <si>
+    <t>Easy access off of I-10</t>
+  </si>
+  <si>
+    <t>Large breakfast buffet daily.  Free evening meal Mon-Wed with beer and wine.  Large room including kitchen.  Upon check-in, I was assigned a room that demanded a very, very long walk.  It was difficult to haul luggage and business equipment along carpeted hallways, especially for this middle-aged woman.  Next time, I will ask for a room closer to the front of the hotel.  I was one room away from being the very last room on the property.  Jamel, Front Desk, was very personable and accommodating.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r520919483-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>520919483</t>
+  </si>
+  <si>
+    <t>09/03/2017</t>
+  </si>
+  <si>
+    <t>Very professional personnel</t>
+  </si>
+  <si>
+    <t>I stayed there couple of times .The hotel is very comfortable and the personnel working there are very professional and friendly Happen to be there during the last Harvey hurricane and all the team there react during a difficult situation in a very professional way being able to maintain still an high level of comfort A special praise to the general manager and his deputy Really good job guys</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r520840565-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>520840565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business as usual, HARVEY!! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have been in the Staybridge since mid August, and must say I have never stayed in such a friendly homely place anywhere in the world. The manager Jon and his staff could not be more helpful. Even as Hurricane Harvey tore its way across Texas and flooded massive areas including the front and rear car parks Jon and staff continued business as normal, in fact more than normal, they exceeded my expectation Thanks very much to one and allPete </t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r503897398-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>503897398</t>
+  </si>
+  <si>
+    <t>07/20/2017</t>
+  </si>
+  <si>
+    <t>Extremely clean and comfortable</t>
+  </si>
+  <si>
+    <t>After some remodeling took over my home, I decided on a whim to book a hotel room for my family.  The front desk staff was prompt and polite.  I have a disabled son who has limited patience and the efficiency was greatly appreciated.Also, they had fajitas with a happy hour during the evening. I did not participate but I did see that they had made great effort.The room itself was very well appointed and comfortable. The beds were comfortable and everything was very clean.Overall, I was very impressed.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r480689854-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>480689854</t>
+  </si>
+  <si>
+    <t>05/01/2017</t>
+  </si>
+  <si>
+    <t>Nice Hotel although the Service Staff can be more Professional</t>
+  </si>
+  <si>
+    <t>Stayed in this hotel during a business trip. Overall, it is a nice Hotel with lot of amenities like, complimentary breakfast, complimentary pick and drop shuttle, Tapas and get togethers in the evenings in the hotel lobby. The only minor disappointment I had was interacting with service/cleaning staff whom cannot speak/understand english which led to a minor misunderstanding. All in all, a really nice experience, will definitely stay again if I visit Energy Corridor in Houston again.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r480355483-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>480355483</t>
+  </si>
+  <si>
+    <t>04/30/2017</t>
+  </si>
+  <si>
+    <t>Pillows Hard and Fluffy</t>
+  </si>
+  <si>
+    <t>The pillows were very uncomfortable.  Way too hard and tall.  Good for sitting up in bed but lousy for sleeping.  No other softer options were available in the room.  The bed was also very firm.  Breakfast was good but the oatmeal was runny and the sausage was a vegetarian patty.  Otherwise, enjoyable.  We used to stay here often, now we'll find somewhere else as there are many options in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>jonlau828, General Manager at Staybridge Suites Houston West / Energy Corridor, responded to this reviewResponded May 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2017</t>
+  </si>
+  <si>
+    <t>The pillows were very uncomfortable.  Way too hard and tall.  Good for sitting up in bed but lousy for sleeping.  No other softer options were available in the room.  The bed was also very firm.  Breakfast was good but the oatmeal was runny and the sausage was a vegetarian patty.  Otherwise, enjoyable.  We used to stay here often, now we'll find somewhere else as there are many options in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r480064137-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>480064137</t>
+  </si>
+  <si>
+    <t>04/29/2017</t>
+  </si>
+  <si>
+    <t>Staybridge Always Delivers</t>
+  </si>
+  <si>
+    <t>Unlike a lot of hotel chains, you pretty much know what to expect from Staybridge properties that are also part of IHG. You know you'll be walking into a very nice, attractive property with a beautiful lobby/lounge area. You know that your room is going to be spacious, have a kitchen, and a small bathroom. Lastly, you'll know the breakfast will be pretty decent. I have no problems with this hotel at all, as it met my expectations and gave me a comfortable one-night stay in Houston. Let's get into a little more detail:
+Upon check-in, my IHG Platinum status was recognized and I was offered a room upgrade from a  studio to a suite. I was also offered a snack and a drink. This was nice as many hotels in this portfolio are just not recognizing status as much, but again you can always expect Staybridge to deliver. There were only several floors in this hotel, so after a very short elevator ride we arrived in our spacious suite that had a living area, a kitchen, and a master bedroom. Everything worked like it should have and we were comfortable. 
+I also had the opportunity to use the fitness center which is connected to the laundry room. Fun fact, I think laundry is free here! The fitness center was good for a small hotel, and offered cardio machines, weight machines, and free weights which was perfect for me. 
+The...Unlike a lot of hotel chains, you pretty much know what to expect from Staybridge properties that are also part of IHG. You know you'll be walking into a very nice, attractive property with a beautiful lobby/lounge area. You know that your room is going to be spacious, have a kitchen, and a small bathroom. Lastly, you'll know the breakfast will be pretty decent. I have no problems with this hotel at all, as it met my expectations and gave me a comfortable one-night stay in Houston. Let's get into a little more detail:Upon check-in, my IHG Platinum status was recognized and I was offered a room upgrade from a  studio to a suite. I was also offered a snack and a drink. This was nice as many hotels in this portfolio are just not recognizing status as much, but again you can always expect Staybridge to deliver. There were only several floors in this hotel, so after a very short elevator ride we arrived in our spacious suite that had a living area, a kitchen, and a master bedroom. Everything worked like it should have and we were comfortable. I also had the opportunity to use the fitness center which is connected to the laundry room. Fun fact, I think laundry is free here! The fitness center was good for a small hotel, and offered cardio machines, weight machines, and free weights which was perfect for me. The breakfast the next day was a bit chaotic. They don't have much indoor seating and we were forced to eat by the pool, which is small but sufficient. They also had an outdoor fire pit/social area but that was taken up as well. The breakfast spread consisted of cheese omelets, bacon, breads/pastries, frozen fruits, yogurt, a waffle maker, and some juices. You always appreciate the hot options in a complementary breakfast buffet, but this hotel's items weren't very good, to be honest. The location is also a few minutes away from I-10 which can connect you to the rest of Houston rather quickly if you avoid high-traffic times. Around the immediate area, you'll find restaurants, grocery stores, and pharmacies. The neighborhood is quiet and safe as well. Overall, I enjoyed my stay. Besides my breakfast experience, everything else about this hotel was what I had expected, if not more. I would not hesitate to stay here again if I need to be in the area for work or to visit friends. I recommend this property!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Unlike a lot of hotel chains, you pretty much know what to expect from Staybridge properties that are also part of IHG. You know you'll be walking into a very nice, attractive property with a beautiful lobby/lounge area. You know that your room is going to be spacious, have a kitchen, and a small bathroom. Lastly, you'll know the breakfast will be pretty decent. I have no problems with this hotel at all, as it met my expectations and gave me a comfortable one-night stay in Houston. Let's get into a little more detail:
+Upon check-in, my IHG Platinum status was recognized and I was offered a room upgrade from a  studio to a suite. I was also offered a snack and a drink. This was nice as many hotels in this portfolio are just not recognizing status as much, but again you can always expect Staybridge to deliver. There were only several floors in this hotel, so after a very short elevator ride we arrived in our spacious suite that had a living area, a kitchen, and a master bedroom. Everything worked like it should have and we were comfortable. 
+I also had the opportunity to use the fitness center which is connected to the laundry room. Fun fact, I think laundry is free here! The fitness center was good for a small hotel, and offered cardio machines, weight machines, and free weights which was perfect for me. 
+The...Unlike a lot of hotel chains, you pretty much know what to expect from Staybridge properties that are also part of IHG. You know you'll be walking into a very nice, attractive property with a beautiful lobby/lounge area. You know that your room is going to be spacious, have a kitchen, and a small bathroom. Lastly, you'll know the breakfast will be pretty decent. I have no problems with this hotel at all, as it met my expectations and gave me a comfortable one-night stay in Houston. Let's get into a little more detail:Upon check-in, my IHG Platinum status was recognized and I was offered a room upgrade from a  studio to a suite. I was also offered a snack and a drink. This was nice as many hotels in this portfolio are just not recognizing status as much, but again you can always expect Staybridge to deliver. There were only several floors in this hotel, so after a very short elevator ride we arrived in our spacious suite that had a living area, a kitchen, and a master bedroom. Everything worked like it should have and we were comfortable. I also had the opportunity to use the fitness center which is connected to the laundry room. Fun fact, I think laundry is free here! The fitness center was good for a small hotel, and offered cardio machines, weight machines, and free weights which was perfect for me. The breakfast the next day was a bit chaotic. They don't have much indoor seating and we were forced to eat by the pool, which is small but sufficient. They also had an outdoor fire pit/social area but that was taken up as well. The breakfast spread consisted of cheese omelets, bacon, breads/pastries, frozen fruits, yogurt, a waffle maker, and some juices. You always appreciate the hot options in a complementary breakfast buffet, but this hotel's items weren't very good, to be honest. The location is also a few minutes away from I-10 which can connect you to the rest of Houston rather quickly if you avoid high-traffic times. Around the immediate area, you'll find restaurants, grocery stores, and pharmacies. The neighborhood is quiet and safe as well. Overall, I enjoyed my stay. Besides my breakfast experience, everything else about this hotel was what I had expected, if not more. I would not hesitate to stay here again if I need to be in the area for work or to visit friends. I recommend this property!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r457320633-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>457320633</t>
+  </si>
+  <si>
+    <t>02/05/2017</t>
+  </si>
+  <si>
+    <t>Enjoyable stay</t>
+  </si>
+  <si>
+    <t>This was a good functional hotel. I thought the rooms actually looked slightly older than the building itself. However, mine was more than adequate for what I needed. The suite was clean, spacious and had a separate bedroom with fridge, coffee maker etc.I used the gym and it had a good choice of equipment. It was too cold to use the pool!The snacks and drinks Monday to Wednesday were good as was the complimentary breakfast; plenty of hot and cold dishes.There were plenty of restaurants literally next door and across the road from the hotel.All in all an enjoyable stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>jonlau828, General Manager at Staybridge Suites Houston West / Energy Corridor, responded to this reviewResponded April 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2017</t>
+  </si>
+  <si>
+    <t>This was a good functional hotel. I thought the rooms actually looked slightly older than the building itself. However, mine was more than adequate for what I needed. The suite was clean, spacious and had a separate bedroom with fridge, coffee maker etc.I used the gym and it had a good choice of equipment. It was too cold to use the pool!The snacks and drinks Monday to Wednesday were good as was the complimentary breakfast; plenty of hot and cold dishes.There were plenty of restaurants literally next door and across the road from the hotel.All in all an enjoyable stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r447474795-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>447474795</t>
+  </si>
+  <si>
+    <t>12/29/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visit to Houston </t>
+  </si>
+  <si>
+    <t>Stayed here on recent visit to family member at Concierge nursing home in Houston and was very pleased. Greeted warmly at reception . Rooms clean and spacious with kitchenette.  Good breakfast selection and also food and beer and wine in evening three days a week. Newer area of Houston so plenty of restaurants nearby also. Only suggestion would be map to help find best parking near room for check in.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r442721950-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>442721950</t>
+  </si>
+  <si>
+    <t>12/07/2016</t>
+  </si>
+  <si>
+    <t>Best Customer service ever, Clean and Quiet!</t>
+  </si>
+  <si>
+    <t>We stay at a lot of hotels and this one I was in for 6 weeks.  The staff is outstanding. The place looks brand new and is well kept. I think it is 15 years old too.  They take pride in making sure their guests have what they need.  Comfortable beds too! Also it is in walkin gdistance of several restaurants.  There is a nice Green space walking path just steps away form the hotel. So no excuses for not walking or running. Its called Terry Hershey Park if you want to google it. I will stay here everytime I visit the Energy Corridor.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r424654240-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>424654240</t>
+  </si>
+  <si>
+    <t>10/03/2016</t>
+  </si>
+  <si>
+    <t>Monday morning LOUD</t>
+  </si>
+  <si>
+    <t>Nice hotel!  Public bathrooms were under construction,making it a bit inconvenient to return to room.  On Sunday the city hosted an event that closed streets in front of the hotel (down to one lane in some areas), they hotel made every effort to notify guests &amp; give directions on how to get around the closure &amp; back to the hotel, unfortunately Houston PD was not cooperative,making it difficult to find a way to get through...frustrating but not the hotels fault! Monday morning as guests started to leave it was very loud, as early as 6:30 a.m. The doors to the rooms are heavy &amp; slam shut VERY LOUD, making it difficult for those not needing to be up as early, to sleep. Otherwise hotel was quiet, room was very clean, staff were very pleasant &amp; helpful, and breakfast had a great selection &amp; was good! Would suggest they offer pay per view channels since it's an extended stay hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice hotel!  Public bathrooms were under construction,making it a bit inconvenient to return to room.  On Sunday the city hosted an event that closed streets in front of the hotel (down to one lane in some areas), they hotel made every effort to notify guests &amp; give directions on how to get around the closure &amp; back to the hotel, unfortunately Houston PD was not cooperative,making it difficult to find a way to get through...frustrating but not the hotels fault! Monday morning as guests started to leave it was very loud, as early as 6:30 a.m. The doors to the rooms are heavy &amp; slam shut VERY LOUD, making it difficult for those not needing to be up as early, to sleep. Otherwise hotel was quiet, room was very clean, staff were very pleasant &amp; helpful, and breakfast had a great selection &amp; was good! Would suggest they offer pay per view channels since it's an extended stay hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r423340480-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>423340480</t>
+  </si>
+  <si>
+    <t>09/28/2016</t>
+  </si>
+  <si>
+    <t>We had to come back, the staff make this place really special, its like home</t>
+  </si>
+  <si>
+    <t>We stayed at the Staybridge Suites for several months during my relocation to Houston from Monaco in Europe in 2012. Our experience was so nice we decided to come back after a tour of Florida. The hotel remains the same, great welcome, lovely environment, and very special staff. The rooms are airy and clean, everything is very well maintained, and there is a good choice of room types and suites. We have stayed at other Staybridge Suites in the US, but this place really goes the extra mile. Cant praise it enough, congratulations to Jon Lau the General Manager, running a first class team. Looking forward to our next visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>We stayed at the Staybridge Suites for several months during my relocation to Houston from Monaco in Europe in 2012. Our experience was so nice we decided to come back after a tour of Florida. The hotel remains the same, great welcome, lovely environment, and very special staff. The rooms are airy and clean, everything is very well maintained, and there is a good choice of room types and suites. We have stayed at other Staybridge Suites in the US, but this place really goes the extra mile. Cant praise it enough, congratulations to Jon Lau the General Manager, running a first class team. Looking forward to our next visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r417823543-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>417823543</t>
+  </si>
+  <si>
+    <t>09/13/2016</t>
+  </si>
+  <si>
+    <t>Great value within the Energy Corridor</t>
+  </si>
+  <si>
+    <t>Hidden gem within the energy corridor.   Very close to work, nice, clean, breakfast each morning, great selection of breakfast.    Even happy hour every mon, tues, and wednesday (only nights I stayed so could be more).   I had a chance to stay here this past week and I was surprised.  Now that I am staying an additional 2 weeks, this is my place.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r386436376-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>386436376</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Nice but no Network</t>
+  </si>
+  <si>
+    <t>The front desk was very accommodating when I told them we needed just one night while house was being painted.  We got a two bedroom suite for the price of a one bedroom (the place was very filled).  The room was clean and nicely set up.  We did not make use of the handicap shower (there were two bathrooms), but it seemed very handy for those in need.  The room was quiet and comfortable.  There was a good variety of foods for the buffet breakfast and the staff attended to everyone's needs.  They do need more seating for breakfast, though.The one thing that made our stay difficult was the lack of wi-fi in our room.  It was imperative for my husband to connect for a conference call at 6 am.  We worked on getting full wi-fi the night before, but without luck for his technology.  My Apple products connected just fine.  We ended up using both our phones as hotspots to finalize the call.  Staybridge has a 24 hour hot-line for anyone not being able to connect and they tried their best to fix it from their end.  No luck.MoreShow less</t>
+  </si>
+  <si>
+    <t>jonlau828, General Manager at Staybridge Suites Houston West / Energy Corridor, responded to this reviewResponded July 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2016</t>
+  </si>
+  <si>
+    <t>The front desk was very accommodating when I told them we needed just one night while house was being painted.  We got a two bedroom suite for the price of a one bedroom (the place was very filled).  The room was clean and nicely set up.  We did not make use of the handicap shower (there were two bathrooms), but it seemed very handy for those in need.  The room was quiet and comfortable.  There was a good variety of foods for the buffet breakfast and the staff attended to everyone's needs.  They do need more seating for breakfast, though.The one thing that made our stay difficult was the lack of wi-fi in our room.  It was imperative for my husband to connect for a conference call at 6 am.  We worked on getting full wi-fi the night before, but without luck for his technology.  My Apple products connected just fine.  We ended up using both our phones as hotspots to finalize the call.  Staybridge has a 24 hour hot-line for anyone not being able to connect and they tried their best to fix it from their end.  No luck.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r384302272-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>384302272</t>
+  </si>
+  <si>
+    <t>06/20/2016</t>
+  </si>
+  <si>
+    <t>Good but not great</t>
+  </si>
+  <si>
+    <t>First time in Houston and we chose this hotel as we are IHG members and wanted a reasonably priced hotel in the Energy Corridor.
+The hotel is OK, I was a little disappointed on check-in that I arrived on my own with two very heavy bags (I travelled here directly from a vacation), laptop bag &amp; handbag - and not a single member of staff offered to help with the doors, bags or anything at all. Shame on you big, muscly chaps - leaving a lone lady to manage.
+The room we were allocated was a suite on the 4th floor (even numbered) - beware - this is directly above the a/c housing for the entire hotel. VERY noisy all night. By the time we worked out where the noise was coming from it was the middle of the night. I had to go back to the airport to collect my husband who was arriving on a different flight so by the time we had eaten &amp; got ourseleves sorted it was close to 1am. I did ask next day if there was anything else available that was quieter, but apparently there wasn't.
+The room itself was reasonably well appointed (perhaps a little too much furniture - really doesn't need an armchair &amp; sofa for a room sleeping two) and spacious enough for the two of us - but it was very hot &amp; very noisy. We could not open...First time in Houston and we chose this hotel as we are IHG members and wanted a reasonably priced hotel in the Energy Corridor.The hotel is OK, I was a little disappointed on check-in that I arrived on my own with two very heavy bags (I travelled here directly from a vacation), laptop bag &amp; handbag - and not a single member of staff offered to help with the doors, bags or anything at all. Shame on you big, muscly chaps - leaving a lone lady to manage.The room we were allocated was a suite on the 4th floor (even numbered) - beware - this is directly above the a/c housing for the entire hotel. VERY noisy all night. By the time we worked out where the noise was coming from it was the middle of the night. I had to go back to the airport to collect my husband who was arriving on a different flight so by the time we had eaten &amp; got ourseleves sorted it was close to 1am. I did ask next day if there was anything else available that was quieter, but apparently there wasn't.The room itself was reasonably well appointed (perhaps a little too much furniture - really doesn't need an armchair &amp; sofa for a room sleeping two) and spacious enough for the two of us - but it was very hot &amp; very noisy. We could not open the window (noise problem!) so no fresh air either.Breakfast selection OK if you're down early enough - although odd combinations of ingredients mixed with scrambled egg left me wondering a bit.The 'Social' gathering between 6 &amp; 8 a complete farce. Cold coffee, 'regular' guests taking the shared wine bottles to their tables &amp; not returning them - and beer taps turned off early. Certainly not a selling point for me.Comfortable bed, but very uncomfortable pillows. Pretty clean, but bathroom needs some attention as taps are leaking when turned to cold.Kitchen area well provisioned, although a jug/kettle for us tea drinking brits woudl be a useful addition.Slightly random acts of housekeeping - let's leave it there (but you could certainly tell when it had been done in a rush!) - some days plenty of towels, other days very few.This hotel is in a reasonable position as it is not near a motorway - being one fo the reasons I chose. I don't like a lot of road noise, however the a/c more than made up for that. Takes about 1/2 hour to drive downtown if you need to and the traffic is reasonably light. Some reasonably priced bars &amp; restaurants nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>jonlau828, General Manager at Staybridge Suites Houston West / Energy Corridor, responded to this reviewResponded June 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2016</t>
+  </si>
+  <si>
+    <t>First time in Houston and we chose this hotel as we are IHG members and wanted a reasonably priced hotel in the Energy Corridor.
+The hotel is OK, I was a little disappointed on check-in that I arrived on my own with two very heavy bags (I travelled here directly from a vacation), laptop bag &amp; handbag - and not a single member of staff offered to help with the doors, bags or anything at all. Shame on you big, muscly chaps - leaving a lone lady to manage.
+The room we were allocated was a suite on the 4th floor (even numbered) - beware - this is directly above the a/c housing for the entire hotel. VERY noisy all night. By the time we worked out where the noise was coming from it was the middle of the night. I had to go back to the airport to collect my husband who was arriving on a different flight so by the time we had eaten &amp; got ourseleves sorted it was close to 1am. I did ask next day if there was anything else available that was quieter, but apparently there wasn't.
+The room itself was reasonably well appointed (perhaps a little too much furniture - really doesn't need an armchair &amp; sofa for a room sleeping two) and spacious enough for the two of us - but it was very hot &amp; very noisy. We could not open...First time in Houston and we chose this hotel as we are IHG members and wanted a reasonably priced hotel in the Energy Corridor.The hotel is OK, I was a little disappointed on check-in that I arrived on my own with two very heavy bags (I travelled here directly from a vacation), laptop bag &amp; handbag - and not a single member of staff offered to help with the doors, bags or anything at all. Shame on you big, muscly chaps - leaving a lone lady to manage.The room we were allocated was a suite on the 4th floor (even numbered) - beware - this is directly above the a/c housing for the entire hotel. VERY noisy all night. By the time we worked out where the noise was coming from it was the middle of the night. I had to go back to the airport to collect my husband who was arriving on a different flight so by the time we had eaten &amp; got ourseleves sorted it was close to 1am. I did ask next day if there was anything else available that was quieter, but apparently there wasn't.The room itself was reasonably well appointed (perhaps a little too much furniture - really doesn't need an armchair &amp; sofa for a room sleeping two) and spacious enough for the two of us - but it was very hot &amp; very noisy. We could not open the window (noise problem!) so no fresh air either.Breakfast selection OK if you're down early enough - although odd combinations of ingredients mixed with scrambled egg left me wondering a bit.The 'Social' gathering between 6 &amp; 8 a complete farce. Cold coffee, 'regular' guests taking the shared wine bottles to their tables &amp; not returning them - and beer taps turned off early. Certainly not a selling point for me.Comfortable bed, but very uncomfortable pillows. Pretty clean, but bathroom needs some attention as taps are leaking when turned to cold.Kitchen area well provisioned, although a jug/kettle for us tea drinking brits woudl be a useful addition.Slightly random acts of housekeeping - let's leave it there (but you could certainly tell when it had been done in a rush!) - some days plenty of towels, other days very few.This hotel is in a reasonable position as it is not near a motorway - being one fo the reasons I chose. I don't like a lot of road noise, however the a/c more than made up for that. Takes about 1/2 hour to drive downtown if you need to and the traffic is reasonably light. Some reasonably priced bars &amp; restaurants nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r380959537-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>380959537</t>
+  </si>
+  <si>
+    <t>06/08/2016</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>Stayed for three nights. We used the hotel as a base for daily trips around Houston. All the expected amenities are available (Wi-Fi, breakfast, etc...). Staff were friendly and the complex clean and tidy. All up and enjoyable stay.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r347503574-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>347503574</t>
+  </si>
+  <si>
+    <t>02/13/2016</t>
+  </si>
+  <si>
+    <t>Good value for money, better than expected</t>
+  </si>
+  <si>
+    <t>I stayed here for 4 nights and it was my first stay in a Staybridge hotel. They were doing reconstruction work at the entrance so I had to enter via a side door.The rooms were quite large and had of course the fridge and the small kitchen. The rooms were clean and kept clean well. One of things I liked best was the breakfast. It had a more diverse offering than I expected upfront so that was a positive surprise.Overall I had a good stay and given and taking the price into account I think it is good value for the money.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r341531833-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>341531833</t>
+  </si>
+  <si>
+    <t>01/20/2016</t>
+  </si>
+  <si>
+    <t>back again</t>
+  </si>
+  <si>
+    <t>i try to stay here in every visit to houston, the hotel is nice, staff friendly and good breakfast as well as snacks in the afternoon, the gym is no good but everything else is great. easy access to beltway 8 and the office i go to so definitively recommend it</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r341459607-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>341459607</t>
+  </si>
+  <si>
+    <t>Excellent!!!</t>
+  </si>
+  <si>
+    <t>I was there for 20 days and, honestly, I had no complaints. Very clean room and bathroom. Staff is very helpful. The Wi-Fi speed and the shuttle bus service are pretty good. Well located hotel, close to many restaurants.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r325163359-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>325163359</t>
+  </si>
+  <si>
+    <t>11/07/2015</t>
+  </si>
+  <si>
+    <t>Week stay here for Business</t>
+  </si>
+  <si>
+    <t>Stayed here recently for 5 days when visiting Houston on buiness. Was disappointed for the very start with poor slow service at check in and then to get the wrong room where i had asked  for a king bed to be given a room  with 2 singles. Then  to be moved to a handicap room which didn't seem to have the same look and feel. anyway the bed was comfortable enough and TV had many channels. Breakfast is not to bad apart from the lack of seats.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>jonlau828, General Manager at Staybridge Suites Houston West / Energy Corridor, responded to this reviewResponded November 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here recently for 5 days when visiting Houston on buiness. Was disappointed for the very start with poor slow service at check in and then to get the wrong room where i had asked  for a king bed to be given a room  with 2 singles. Then  to be moved to a handicap room which didn't seem to have the same look and feel. anyway the bed was comfortable enough and TV had many channels. Breakfast is not to bad apart from the lack of seats.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r322207332-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>322207332</t>
+  </si>
+  <si>
+    <t>10/26/2015</t>
+  </si>
+  <si>
+    <t>Great reviews seem well-deserved</t>
+  </si>
+  <si>
+    <t>We stayed at this property for 2 nights.  All the things I care about were great.  Good internet for a hotel (3 GB/S), not blazing but plenty fast to do email and browse.  Shower pressure was great.  We had  a little suite with kitchenette.  Everything was clean and staff were very friendly and helpful.  They also have laundry and computer room that was well-maintained.  The only very slight disappointment was the entrance is not covered so in rainy weather it's not easy to unload and there's a LOT of rainy days in Houston... even so everything else was so great I give it 4 stars.I hope this helps.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r310364606-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>310364606</t>
+  </si>
+  <si>
+    <t>09/14/2015</t>
+  </si>
+  <si>
+    <t>Great hospitality</t>
+  </si>
+  <si>
+    <t>My wife and I stayed 3 nights and found this hotel very comfortable, the room is spacious and enjoyed complimentary breakfast.The most impressed thing was, the shuttle driver waited us at the rental car company until he confirmed I got my car according to my prior reservation. He worried in case I couldn't get any car due to whatever reason.Later, I got to know the Staybridge manager also acted as shuffle driver at that occasion.I thank him for his way to treat us in such a thoughtful manner.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r279639276-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>279639276</t>
+  </si>
+  <si>
+    <t>06/11/2015</t>
+  </si>
+  <si>
+    <t>The staff was so welcoming it felt like home</t>
+  </si>
+  <si>
+    <t>We normally stay at Candlewood but decided to give Staybridge a try because it was closer to our destination.  This is by far the BEST hotel I've ever stayed at.  I cannot say one bad thing about our 4 day experience.  I have never been at a hotel with a friendlier staff.  The room is great, the best free breakfast around, very clean and well kept.  I just cannot say enough good things about this hotel.  I am now a Staybridge convert!!!!</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r275350186-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>275350186</t>
+  </si>
+  <si>
+    <t>05/28/2015</t>
+  </si>
+  <si>
+    <t>Good place for work trips</t>
+  </si>
+  <si>
+    <t>I'm living in this hotel right now and I like the place. It has a spacious room, with a small kitchen and a big bed. In the evenings, the hotel offers some food and drinks for free. The hotel manager Jon is very friendly and he knows all guests by their names.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r273169441-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>273169441</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t>Comfortable, Clean, Nice Area</t>
+  </si>
+  <si>
+    <t>Stayed in this property from May 15 thru May 18th.  This is a very nice property!  The rooms were very clean.  Dogs are allowed, however the fee is PER PET each stay. They provide breakfast and it is everything you need to get going, including eggs.  milk, waffles, yogurt, etc. The corn dogs one morning instead of sausage I found strange one morning, but my boyfriend was excited about the corn dogs for breakfast. They have a clean pool, nice outdoor sitting areas with a gas fire pit, and a grill with a covered area.  The gym was very nice and has everything you needed.  There was a laundry room as well. The area was near many options to eat including a grocery store down the street. My stay was very quiet. The property looked spic and span to me.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed in this property from May 15 thru May 18th.  This is a very nice property!  The rooms were very clean.  Dogs are allowed, however the fee is PER PET each stay. They provide breakfast and it is everything you need to get going, including eggs.  milk, waffles, yogurt, etc. The corn dogs one morning instead of sausage I found strange one morning, but my boyfriend was excited about the corn dogs for breakfast. They have a clean pool, nice outdoor sitting areas with a gas fire pit, and a grill with a covered area.  The gym was very nice and has everything you needed.  There was a laundry room as well. The area was near many options to eat including a grocery store down the street. My stay was very quiet. The property looked spic and span to me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r266245020-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>266245020</t>
+  </si>
+  <si>
+    <t>04/17/2015</t>
+  </si>
+  <si>
+    <t>Felt like home</t>
+  </si>
+  <si>
+    <t>While on a business trip to Houston, I booked my stay at this hotel and was here for 10 nights. The room was clean and well equipped. It was so comfortable staying here that it felt like home. They had a lot of variety for breakfast, which was complementary. They also have happy hours 3 days a week, which is complementary again. Food was amazing, and so was the service. The entire staff was courteous and prompt. Amenities are great. The campus is clean and well maintained. I'd definitely recommend this hotel to family and friends.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r265382909-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>265382909</t>
+  </si>
+  <si>
+    <t>04/12/2015</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>So the stay was pleasant overall. My son said he couldn't sleep on the bed whatsoever because the beds were so uncomfortable. The rooms were clean, the location is great but I honestly didn't care for their breakfast. I pretty much only had fruit and eggs. It was the normal continental with make your own waffles ands everything else but the proteins and such were gross. One day if seemed like spam, another day dry as can be sausage patties. Let's see? Refried beans another day. It was just kinda gross. The happy hour was good if you like beer. The wine they had was so gross I couldn't finish one glass. Food aside the hotel was nice. Bulletin board with local events, bicycles for the guests. MoreShow less</t>
+  </si>
+  <si>
+    <t>jonlau828, General Manager at Staybridge Suites Houston West / Energy Corridor, responded to this reviewResponded April 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2015</t>
+  </si>
+  <si>
+    <t>So the stay was pleasant overall. My son said he couldn't sleep on the bed whatsoever because the beds were so uncomfortable. The rooms were clean, the location is great but I honestly didn't care for their breakfast. I pretty much only had fruit and eggs. It was the normal continental with make your own waffles ands everything else but the proteins and such were gross. One day if seemed like spam, another day dry as can be sausage patties. Let's see? Refried beans another day. It was just kinda gross. The happy hour was good if you like beer. The wine they had was so gross I couldn't finish one glass. Food aside the hotel was nice. Bulletin board with local events, bicycles for the guests. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r262167066-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>262167066</t>
+  </si>
+  <si>
+    <t>03/27/2015</t>
+  </si>
+  <si>
+    <t>Pleasant stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decent breakfast. Comfortable room. Bulletin board in lobby listing activities going on in Houston the travelers might want to see. Only complaint was the pillows were a bit too thick. We ended up using them as body pillows. But that was not a huge deal for us. Would def stay here again. </t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r252319491-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>252319491</t>
+  </si>
+  <si>
+    <t>02/02/2015</t>
+  </si>
+  <si>
+    <t>Home away from Home</t>
+  </si>
+  <si>
+    <t>This was our first trip to Houston in 6 years and we had previously stayed in a chain hotel which consisted of a single room with a 'roll-away' bed for our then 9 year old daughter...which is okay for a night or two. 
+For this trip I wanted something larger to suit our now teenager as well as my husband and myself as we were staying for 2 weeks.
+My husband was visiting Houston on business and his company has their local office nearby so the location was ideal. 
+The idea of having a suite for the 3 of us was also ideal. Initially we had booked a one bedroom ADA room as my husband is in a wheelchair. We knew that their was a sofa-bed that could be used by our daughter. It has been our experience in the past that when it comes to booking ADA rooms it is assumed that no children will be accompanying you so we thought that a one bedroom suite would be all that was accessible/ available to us. 
+On arrival, after a very long 36hr trip from Australia we were delighted to find we had been upgraded to a 2 bedroom, 2 bathroom suite which was well and truly ADA accessible.
+This was just perfect for the 3 of us as we all had space to have 'alone' time to use computers, watch TV and go to sleep earlier or later than...This was our first trip to Houston in 6 years and we had previously stayed in a chain hotel which consisted of a single room with a 'roll-away' bed for our then 9 year old daughter...which is okay for a night or two. For this trip I wanted something larger to suit our now teenager as well as my husband and myself as we were staying for 2 weeks.My husband was visiting Houston on business and his company has their local office nearby so the location was ideal. The idea of having a suite for the 3 of us was also ideal. Initially we had booked a one bedroom ADA room as my husband is in a wheelchair. We knew that their was a sofa-bed that could be used by our daughter. It has been our experience in the past that when it comes to booking ADA rooms it is assumed that no children will be accompanying you so we thought that a one bedroom suite would be all that was accessible/ available to us. On arrival, after a very long 36hr trip from Australia we were delighted to find we had been upgraded to a 2 bedroom, 2 bathroom suite which was well and truly ADA accessible.This was just perfect for the 3 of us as we all had space to have 'alone' time to use computers, watch TV and go to sleep earlier or later than the others in the suite. It was like living in a small apartment.The fully inclusive breakfast each day was a bonus and the availability to take a 'doggy bag' away with you was great as our daughter often slept in (as teenagers do, especially with jet lag) so I was able to arrange a fresh packed breakfast for her each morning that she could eat at a later time.The 'Pantry" which is a small shop near reception, also came in handy to buy items of food or toiletries we needed.There are several cafe/restaurants within walking distance which we used as well as the Social Nights (Tues, Wed, Thursday) when the hotel supplies a light dinner with drinks in the dining room.Again this was a bonus as there are always nights when you just don't feel like dining out in a restaurant after a hard day at work.The staff were always super friendly and accommodating, nothing was too much trouble. The rooms were spacious, clean and recently refurbished. For once the bed and PILLOWS were comfortable ...nothing ruins a holiday more than not getting a good sleep.Having a free laundry, next door to the gym was also, yet another, handy bonus as well as ample, well lit parking.I have no hesitation recommending this hotel to either business travellers or families that need a base with in the Energy Corridor of HoustonMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>This was our first trip to Houston in 6 years and we had previously stayed in a chain hotel which consisted of a single room with a 'roll-away' bed for our then 9 year old daughter...which is okay for a night or two. 
+For this trip I wanted something larger to suit our now teenager as well as my husband and myself as we were staying for 2 weeks.
+My husband was visiting Houston on business and his company has their local office nearby so the location was ideal. 
+The idea of having a suite for the 3 of us was also ideal. Initially we had booked a one bedroom ADA room as my husband is in a wheelchair. We knew that their was a sofa-bed that could be used by our daughter. It has been our experience in the past that when it comes to booking ADA rooms it is assumed that no children will be accompanying you so we thought that a one bedroom suite would be all that was accessible/ available to us. 
+On arrival, after a very long 36hr trip from Australia we were delighted to find we had been upgraded to a 2 bedroom, 2 bathroom suite which was well and truly ADA accessible.
+This was just perfect for the 3 of us as we all had space to have 'alone' time to use computers, watch TV and go to sleep earlier or later than...This was our first trip to Houston in 6 years and we had previously stayed in a chain hotel which consisted of a single room with a 'roll-away' bed for our then 9 year old daughter...which is okay for a night or two. For this trip I wanted something larger to suit our now teenager as well as my husband and myself as we were staying for 2 weeks.My husband was visiting Houston on business and his company has their local office nearby so the location was ideal. The idea of having a suite for the 3 of us was also ideal. Initially we had booked a one bedroom ADA room as my husband is in a wheelchair. We knew that their was a sofa-bed that could be used by our daughter. It has been our experience in the past that when it comes to booking ADA rooms it is assumed that no children will be accompanying you so we thought that a one bedroom suite would be all that was accessible/ available to us. On arrival, after a very long 36hr trip from Australia we were delighted to find we had been upgraded to a 2 bedroom, 2 bathroom suite which was well and truly ADA accessible.This was just perfect for the 3 of us as we all had space to have 'alone' time to use computers, watch TV and go to sleep earlier or later than the others in the suite. It was like living in a small apartment.The fully inclusive breakfast each day was a bonus and the availability to take a 'doggy bag' away with you was great as our daughter often slept in (as teenagers do, especially with jet lag) so I was able to arrange a fresh packed breakfast for her each morning that she could eat at a later time.The 'Pantry" which is a small shop near reception, also came in handy to buy items of food or toiletries we needed.There are several cafe/restaurants within walking distance which we used as well as the Social Nights (Tues, Wed, Thursday) when the hotel supplies a light dinner with drinks in the dining room.Again this was a bonus as there are always nights when you just don't feel like dining out in a restaurant after a hard day at work.The staff were always super friendly and accommodating, nothing was too much trouble. The rooms were spacious, clean and recently refurbished. For once the bed and PILLOWS were comfortable ...nothing ruins a holiday more than not getting a good sleep.Having a free laundry, next door to the gym was also, yet another, handy bonus as well as ample, well lit parking.I have no hesitation recommending this hotel to either business travellers or families that need a base with in the Energy Corridor of HoustonMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r250077972-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>250077972</t>
+  </si>
+  <si>
+    <t>01/19/2015</t>
+  </si>
+  <si>
+    <t>Pleasant Stay</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel January 16-18 due to the fact that we were in town for my sister-in-law's wedding. This hotel is located 2 miles from the church in which the wedding and reception were held. The room was nice and looked and smelled clean. A couple of hours after checking in I went to use the restroom and the toilet was dirty. I called the front desk and they offered to switch my room, but after a 6 hour drive and already unpacking our bags we didn't feel like changing rooms. They did send someone to clean it the next day. All of the staff was very friendly, especially the lady in the breakfast room. Breakfast tasted very good and the hotel tell has a "homey" feel. We really enjoyed our stay and it was comfortable. There are plenty if restaurants right across the street from the hotel and we patronized two of them. If we ever have to be in this area of Houston again, this is where we will be staying! MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel January 16-18 due to the fact that we were in town for my sister-in-law's wedding. This hotel is located 2 miles from the church in which the wedding and reception were held. The room was nice and looked and smelled clean. A couple of hours after checking in I went to use the restroom and the toilet was dirty. I called the front desk and they offered to switch my room, but after a 6 hour drive and already unpacking our bags we didn't feel like changing rooms. They did send someone to clean it the next day. All of the staff was very friendly, especially the lady in the breakfast room. Breakfast tasted very good and the hotel tell has a "homey" feel. We really enjoyed our stay and it was comfortable. There are plenty if restaurants right across the street from the hotel and we patronized two of them. If we ever have to be in this area of Houston again, this is where we will be staying! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r243966605-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>243966605</t>
+  </si>
+  <si>
+    <t>12/10/2014</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>Great hotel with an excellent staff that will make you feel like home.  The staff was able to accommodate my needs.  Very quiet hotel for being in the energy corridor in Houston, TX.  Plenty of amenities surrounding the hotel that go from  great restaurants to fast food locations.  Also, excellent locations to spend time with the family.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r230599512-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>230599512</t>
+  </si>
+  <si>
+    <t>09/23/2014</t>
+  </si>
+  <si>
+    <t>My Home Away From Home</t>
+  </si>
+  <si>
+    <t>I travel to Houston a good bit for work and I love staying at the Staybridge Suites Energy Cooridor.  Jon and his staff always welcome me so warmly after my long drive.  The room is always perfect and comfortable.  I can't recommend this hotel enough.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r220850988-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>220850988</t>
+  </si>
+  <si>
+    <t>08/10/2014</t>
+  </si>
+  <si>
+    <t>Best place to stay in the energy corridor</t>
+  </si>
+  <si>
+    <t>This must be the friendliest hotel ever to stay in, where you can freely chat with all the current guests and the ever so friendly staff !!  If travelling to this area of Houston, be sure to check it out for a warm welcome !!!I enjoyed it that much I went in April and stayed for 4 months till August !</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r219101651-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>219101651</t>
+  </si>
+  <si>
+    <t>08/02/2014</t>
+  </si>
+  <si>
+    <t>Enjoyable Stay</t>
+  </si>
+  <si>
+    <t>I was in Houston for a 3 week business trip. I have had favorable experiences at other Staybridge facilities, and this one did not disappoint. John Lau and all of his staff do an excellent job. The front desk personnel do an excellent job, in spite of some of the demands I placed upon them. Housekeeping did an exemplary job of keeping my mess straightened and clean. The Tuesday/Wednesday/Thursday evening receptions were great, and I enjoyed mingling with the other guests. Only one complaint - the beer was too foamy! If you are wanting to stay at a clean, comfortable, and welcoming place this is it. I will be returning back to the Houston area soon, and will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>I was in Houston for a 3 week business trip. I have had favorable experiences at other Staybridge facilities, and this one did not disappoint. John Lau and all of his staff do an excellent job. The front desk personnel do an excellent job, in spite of some of the demands I placed upon them. Housekeeping did an exemplary job of keeping my mess straightened and clean. The Tuesday/Wednesday/Thursday evening receptions were great, and I enjoyed mingling with the other guests. Only one complaint - the beer was too foamy! If you are wanting to stay at a clean, comfortable, and welcoming place this is it. I will be returning back to the Houston area soon, and will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r205368750-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>205368750</t>
+  </si>
+  <si>
+    <t>05/13/2014</t>
+  </si>
+  <si>
+    <t>Brilliant place to stay</t>
+  </si>
+  <si>
+    <t>Stayed here for a month as my husband is here on business and we will be in Houston for rest of year. Warm greeting at reception room has separate bedroom with flat screen tv usual bathroom living room has small kitchen with fridge freezer stove with 2 rings microwave and dishwasher breakfast has hot &amp; cold dishes juices coffee tea waffle maker, every Tuesday Wednesday Thursday given complimentary meal &amp;salad wine or beer which is great if you want it.Free laundry facilities which also a bonus outside hotel some shops&amp; cafés ten minute drive will get you supermarket and targets so you can stock up. I have found the staff in the hotel so friendly nothing is a problem even a courtesy bus with 3miles also rooms very clean 10/10 for standard willBe happy to recommend this hotel and will be happy to stay here for as long as my husband has to be here.MoreShow less</t>
+  </si>
+  <si>
+    <t>jonlau828, General Manager at Staybridge Suites Houston West / Energy Corridor, responded to this reviewResponded June 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2014</t>
+  </si>
+  <si>
+    <t>Stayed here for a month as my husband is here on business and we will be in Houston for rest of year. Warm greeting at reception room has separate bedroom with flat screen tv usual bathroom living room has small kitchen with fridge freezer stove with 2 rings microwave and dishwasher breakfast has hot &amp; cold dishes juices coffee tea waffle maker, every Tuesday Wednesday Thursday given complimentary meal &amp;salad wine or beer which is great if you want it.Free laundry facilities which also a bonus outside hotel some shops&amp; cafés ten minute drive will get you supermarket and targets so you can stock up. I have found the staff in the hotel so friendly nothing is a problem even a courtesy bus with 3miles also rooms very clean 10/10 for standard willBe happy to recommend this hotel and will be happy to stay here for as long as my husband has to be here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r199711730-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>199711730</t>
+  </si>
+  <si>
+    <t>04/02/2014</t>
+  </si>
+  <si>
+    <t>Great home away from home</t>
+  </si>
+  <si>
+    <t>During corp. relocation,my son in laws company had him stay here, several times during the interview process, a few nights, and then extended stay while in the moving process from Puerto Rico. With in walking distance from his new job, he did not have to rent a car, and they do have a shuttle to all the close by companies that helps a lot.Every one, is very nice, helpful and goes out of their way to help. The breakfasts are hearty and plentiful, he has not been to one of the evening socials as he has been working long long days, but the people that i have spoke to say it is a very nice added benefit being away from home, a nice way to meet people in a new place.. When his wife (my daughter) came to house hunt, they welcomed her as well, making her feel at home.Too cold for swimming yet, but pool area was nice and neat.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>During corp. relocation,my son in laws company had him stay here, several times during the interview process, a few nights, and then extended stay while in the moving process from Puerto Rico. With in walking distance from his new job, he did not have to rent a car, and they do have a shuttle to all the close by companies that helps a lot.Every one, is very nice, helpful and goes out of their way to help. The breakfasts are hearty and plentiful, he has not been to one of the evening socials as he has been working long long days, but the people that i have spoke to say it is a very nice added benefit being away from home, a nice way to meet people in a new place.. When his wife (my daughter) came to house hunt, they welcomed her as well, making her feel at home.Too cold for swimming yet, but pool area was nice and neat.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r197018870-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>197018870</t>
+  </si>
+  <si>
+    <t>03/11/2014</t>
+  </si>
+  <si>
+    <t>Great place to stay in Houston</t>
+  </si>
+  <si>
+    <t>Check in was efficient, friendly and informative. Room was clean and spacious. Breakfast was good. All the staff was friendly and helpful.  They even accept pets (for a fee). Nice property. I'll definitely stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r188249587-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>188249587</t>
+  </si>
+  <si>
+    <t>12/21/2013</t>
+  </si>
+  <si>
+    <t>Nice Stay</t>
+  </si>
+  <si>
+    <t>Stayed at this property back in November. Front desk staff is very nice and helpful. The room had a nice sitting area and the bed was comfortable. It is nice that they offer their happy hour with appetizers and then breakfast in the morning. The food is just so-so. I would stay here again.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r179006974-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>179006974</t>
+  </si>
+  <si>
+    <t>09/28/2013</t>
+  </si>
+  <si>
+    <t>feel at home..</t>
+  </si>
+  <si>
+    <t>Homely atmosphere, cosy suites, elegant setting and wonderful staff. I stayed at this place for almost 40 days and had no problems whatsoever except some hicups on the wifi at room but was quickly resolved. This place is close to some good western and Indian restaurants and a big Krogers supermart. "the Social" is the fantastic concept where guests can gather on Tuesday to Thursady in evenings for free snacks and drinks (Wine and Beer). Breakfast is pretty much the same every day but is good for you to get going till lunch time.There is no restaurant at this place so prepare yourself for dining out in the evenings. A good enough pub next door to catch some football.Washing area is good and free of charge. Would surely return to this place next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>jonlau828, General Manager at Staybridge Suites Houston West / Energy Corridor, responded to this reviewResponded October 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2013</t>
+  </si>
+  <si>
+    <t>Homely atmosphere, cosy suites, elegant setting and wonderful staff. I stayed at this place for almost 40 days and had no problems whatsoever except some hicups on the wifi at room but was quickly resolved. This place is close to some good western and Indian restaurants and a big Krogers supermart. "the Social" is the fantastic concept where guests can gather on Tuesday to Thursady in evenings for free snacks and drinks (Wine and Beer). Breakfast is pretty much the same every day but is good for you to get going till lunch time.There is no restaurant at this place so prepare yourself for dining out in the evenings. A good enough pub next door to catch some football.Washing area is good and free of charge. Would surely return to this place next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r167808124-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>167808124</t>
+  </si>
+  <si>
+    <t>07/16/2013</t>
+  </si>
+  <si>
+    <t>Nice hotel, but but family friendly</t>
+  </si>
+  <si>
+    <t>The hotel was clean, but not as nice as the newer staybridges. The service was great, but the hotel did not have movies or sofa sleepers. I would stay at this hotel again, but not with the family. The hotel was clean, but not as nice as the newer staybridges. The service was great, but the hotel did not have movies or sofa sleepers. I would stay at this hotel again, but not with the family.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>jonlau828, General Manager at Staybridge Suites Houston West / Energy Corridor, responded to this reviewResponded July 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2013</t>
+  </si>
+  <si>
+    <t>The hotel was clean, but not as nice as the newer staybridges. The service was great, but the hotel did not have movies or sofa sleepers. I would stay at this hotel again, but not with the family. The hotel was clean, but not as nice as the newer staybridges. The service was great, but the hotel did not have movies or sofa sleepers. I would stay at this hotel again, but not with the family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r160181727-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>160181727</t>
+  </si>
+  <si>
+    <t>05/09/2013</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>Girls trip to Houston and we all loved our stay! Selected on-line and was pleasantly surprised. We had to wait to check in but it was more than ok as we sat in a very nice outside pavillion enjoying spring houston weather. Great service from the front desk clerk (i can't remember the young man's name but maybe Javier, Jarvis?). Friendly and helpful every single day! Amenities were plentiful: beds were comfortable, the breakfast outstanding every single day with multiple offerings, movie room, outside seating areas, and close to shopping and restaurants. Will stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>jonlau828, Manager at Staybridge Suites Houston West / Energy Corridor, responded to this reviewResponded May 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2013</t>
+  </si>
+  <si>
+    <t>Girls trip to Houston and we all loved our stay! Selected on-line and was pleasantly surprised. We had to wait to check in but it was more than ok as we sat in a very nice outside pavillion enjoying spring houston weather. Great service from the front desk clerk (i can't remember the young man's name but maybe Javier, Jarvis?). Friendly and helpful every single day! Amenities were plentiful: beds were comfortable, the breakfast outstanding every single day with multiple offerings, movie room, outside seating areas, and close to shopping and restaurants. Will stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r150718919-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>150718919</t>
+  </si>
+  <si>
+    <t>01/27/2013</t>
+  </si>
+  <si>
+    <t>will be back again</t>
+  </si>
+  <si>
+    <t>stayed in the hotel in Oct- Nov of 2012 for 4 weeks. excellent service and amenities, much to my requirements.The staff is very helpful and with all required amenities in place, it is  my favorite place for long stay in houston. highly recommended if one is looking for no hassles, comfortable and enjoyable stay.Hope to be back soon!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>jonlau828, General Manager at Staybridge Suites Houston West / Energy Corridor, responded to this reviewResponded January 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2013</t>
+  </si>
+  <si>
+    <t>stayed in the hotel in Oct- Nov of 2012 for 4 weeks. excellent service and amenities, much to my requirements.The staff is very helpful and with all required amenities in place, it is  my favorite place for long stay in houston. highly recommended if one is looking for no hassles, comfortable and enjoyable stay.Hope to be back soon!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r150102635-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>150102635</t>
+  </si>
+  <si>
+    <t>01/20/2013</t>
+  </si>
+  <si>
+    <t>Love this hotel.</t>
+  </si>
+  <si>
+    <t>I stay here when in Houston for work a couple times a year. It is convenient to dining, shopping and groceties. i have found every staff member I  come across is so nice and makes sure i am enjoying my stay. The room is so comfortable and clean, I definitely recommend this hotel!!! The breakfast buffet and light dinner buffet Tues-Thurs with complimentary wine and beer is nice after a long day of business meetings and you just don't want to go out for dinner. I can't say enough good things about this hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>jonlau828, General Manager at Staybridge Suites Houston West / Energy Corridor, responded to this reviewResponded January 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2013</t>
+  </si>
+  <si>
+    <t>I stay here when in Houston for work a couple times a year. It is convenient to dining, shopping and groceties. i have found every staff member I  come across is so nice and makes sure i am enjoying my stay. The room is so comfortable and clean, I definitely recommend this hotel!!! The breakfast buffet and light dinner buffet Tues-Thurs with complimentary wine and beer is nice after a long day of business meetings and you just don't want to go out for dinner. I can't say enough good things about this hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r146509896-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>146509896</t>
+  </si>
+  <si>
+    <t>11/30/2012</t>
+  </si>
+  <si>
+    <t>Very Comfortable stay in a great location..........</t>
+  </si>
+  <si>
+    <t>Booked in here for a 4 week stay to be close to the office.Had a room at the rear on 3rd floor only draw back is the bin truck that comes at 4am on a Monday and Friday morning!  Apart from that some traffic noise from the Parkway at the rear but other wise okay.  Room had everything I required was clean and comfortable with good size work desk. The Desk Chair supplied could do to be a lot higher but sitting on 2 pillows solved the problem.  Breakfast is very basic (which is fine by me) and the evening meals supplied are the same but a chance to meet and greet with others if you are into that sort of thing.Will definately stay here again in the future as it meets all my criteria of clean, comfortable and in a handy location.  You can even catch an express Metro bus to Galleria and Downtown in Eldridge Drive.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Booked in here for a 4 week stay to be close to the office.Had a room at the rear on 3rd floor only draw back is the bin truck that comes at 4am on a Monday and Friday morning!  Apart from that some traffic noise from the Parkway at the rear but other wise okay.  Room had everything I required was clean and comfortable with good size work desk. The Desk Chair supplied could do to be a lot higher but sitting on 2 pillows solved the problem.  Breakfast is very basic (which is fine by me) and the evening meals supplied are the same but a chance to meet and greet with others if you are into that sort of thing.Will definately stay here again in the future as it meets all my criteria of clean, comfortable and in a handy location.  You can even catch an express Metro bus to Galleria and Downtown in Eldridge Drive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r146111904-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>146111904</t>
+  </si>
+  <si>
+    <t>11/24/2012</t>
+  </si>
+  <si>
+    <t>HORRIBLE HOTEL EXPERIENCE - DON'T WASTE YOUR TIME OR MONEY!!!</t>
+  </si>
+  <si>
+    <t>We recently stayed at this hotel for 3 nights during Thanksgiving holiday and it was one of the most horrible hotel experiences we've ever had at a hotel.  The first night there was a lot of noise from the top floors - you can clearly and loudly hear each foot step when people are walking on the top floor; the second day our room was never made nor cleaned; and the third night at 4:30 a.m. an air condition breaker caused an alarm to sound inside the room walls - we were told we had to wait until 8:00 am until maintenance man came to fix problem.After explaining to clueless front desk clerk we had two small children she moved us to another room; however we were still charged a full nights rate despite not meeting a full nights rest.  The area in which this hotel is located is nice; however hotel, service and hospitality by management is clearly a major shortfall.  Don't waste your time or money on this hotel - worthwhile to spend a bit more and stay at other hotels that are very close to this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>jonlau828, General Manager at Staybridge Suites Houston West / Energy Corridor, responded to this reviewResponded November 27, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 27, 2012</t>
+  </si>
+  <si>
+    <t>We recently stayed at this hotel for 3 nights during Thanksgiving holiday and it was one of the most horrible hotel experiences we've ever had at a hotel.  The first night there was a lot of noise from the top floors - you can clearly and loudly hear each foot step when people are walking on the top floor; the second day our room was never made nor cleaned; and the third night at 4:30 a.m. an air condition breaker caused an alarm to sound inside the room walls - we were told we had to wait until 8:00 am until maintenance man came to fix problem.After explaining to clueless front desk clerk we had two small children she moved us to another room; however we were still charged a full nights rate despite not meeting a full nights rest.  The area in which this hotel is located is nice; however hotel, service and hospitality by management is clearly a major shortfall.  Don't waste your time or money on this hotel - worthwhile to spend a bit more and stay at other hotels that are very close to this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r145749643-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>145749643</t>
+  </si>
+  <si>
+    <t>11/19/2012</t>
+  </si>
+  <si>
+    <t>Good for two bedrooms if needed, but quality not so good</t>
+  </si>
+  <si>
+    <t>I like that they had two bedroom suites available.  Very convenient to bike trails and keeping our bikes in the room was a plus.  Had onsite laundry and good breakfast!  However the cabinets, counter-tops, bathroom and tables were pretty low quality.  Pretty thin walls also.  I would stay here again, but would try and find another hotel first that meet our space needs.  Beds were nice and firm.MoreShow less</t>
+  </si>
+  <si>
+    <t>I like that they had two bedroom suites available.  Very convenient to bike trails and keeping our bikes in the room was a plus.  Had onsite laundry and good breakfast!  However the cabinets, counter-tops, bathroom and tables were pretty low quality.  Pretty thin walls also.  I would stay here again, but would try and find another hotel first that meet our space needs.  Beds were nice and firm.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r139528118-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>139528118</t>
+  </si>
+  <si>
+    <t>09/05/2012</t>
+  </si>
+  <si>
+    <t>Home from Home</t>
+  </si>
+  <si>
+    <t>Excellent 1-bedroom suite which was perfect for my 6-week stay in Houston. Good varied breakfast and a light meal 3 evenings per week. The hotel is clean and well maintained and the staff are friendly. Very satisfied.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r129568481-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>129568481</t>
+  </si>
+  <si>
+    <t>05/08/2012</t>
+  </si>
+  <si>
+    <t>Great staff, great rooms with a good price</t>
+  </si>
+  <si>
+    <t>This hotel has a great and very kind staff. It was a business trip and also a family holiday. I was stay with my husband and my 2.5 yo daughter. The hotel just perfect for us. We able to cook in our room, fridge my daughter's fave food and my daughter has a space to play near the pool. The staff are very nice and helpful. I was use the shuttle from the hotel to my office, and everyone who drove the car were very friendly.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r115960950-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>115960950</t>
+  </si>
+  <si>
+    <t>07/29/2011</t>
+  </si>
+  <si>
+    <t>Suites Accommodation of Decent Standard</t>
+  </si>
+  <si>
+    <t>Suites adequate for the purpose, but not as thoroughly cleaned as might have been expected - old bits of paper and cellophane in corners, for example, but bathrooms were sparkling.  Hotel provided breakfasts each day which were plentiful and varied, and had meals three evenings a week, all included in the Room rate.Staff very courteous and helpful.</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r57171826-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>57171826</t>
+  </si>
+  <si>
+    <t>02/26/2010</t>
+  </si>
+  <si>
+    <t>Felt like home!</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for an entire month with our two teeangers and our dog!  We continued to be amazed by the amenities and staff.  They take care of this place and really seem to want their guests to be content.  The two bedroom unit(s) were not availalbe, so we stayed in a one bedroom unit.  With the nice community areas downstairs, we were able to not feel too overcrowded.  The free laundry room is a nice amenity.  My teenage son enjoyed the weight room.  The "pet area" outside was convenient for taking our dog out.  This hotel is also along a great hike and bike trail.  Groceries and restaurants are very convenient, too.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for an entire month with our two teeangers and our dog!  We continued to be amazed by the amenities and staff.  They take care of this place and really seem to want their guests to be content.  The two bedroom unit(s) were not availalbe, so we stayed in a one bedroom unit.  With the nice community areas downstairs, we were able to not feel too overcrowded.  The free laundry room is a nice amenity.  My teenage son enjoyed the weight room.  The "pet area" outside was convenient for taking our dog out.  This hotel is also along a great hike and bike trail.  Groceries and restaurants are very convenient, too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r47349182-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>47349182</t>
+  </si>
+  <si>
+    <t>10/20/2009</t>
+  </si>
+  <si>
+    <t>Exceeded expectations until the last morning of our stay</t>
+  </si>
+  <si>
+    <t>We booked a queen suite for two nights for a getaway trip and were upgraded to a king suite at no cost.  The rooms are great and as clean as could be without smelling like cheap cleaning products.  The breakfast was nice with decent variety.  The beds are very, very firm which is a plus for some but not us.  Our last morning there we woke up to the sound of lawn mowers and weed eaters outside our first floor window.  We were travelling without our kids and planned on sleeping in so this was a major disappointment.  Just as disappointing was the hotel clerk's lack of empathy when we voiced our concern.Overall, I would recommend this hotel to both business and leisure travelers.  Hopefully  they won't have the landscaping crew out that early on a Saturday again after the feedback I gave to Priority Club and the property management.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>We booked a queen suite for two nights for a getaway trip and were upgraded to a king suite at no cost.  The rooms are great and as clean as could be without smelling like cheap cleaning products.  The breakfast was nice with decent variety.  The beds are very, very firm which is a plus for some but not us.  Our last morning there we woke up to the sound of lawn mowers and weed eaters outside our first floor window.  We were travelling without our kids and planned on sleeping in so this was a major disappointment.  Just as disappointing was the hotel clerk's lack of empathy when we voiced our concern.Overall, I would recommend this hotel to both business and leisure travelers.  Hopefully  they won't have the landscaping crew out that early on a Saturday again after the feedback I gave to Priority Club and the property management.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r40508415-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>40508415</t>
+  </si>
+  <si>
+    <t>09/09/2009</t>
+  </si>
+  <si>
+    <t>Completely Reliable</t>
+  </si>
+  <si>
+    <t>I stay at this hotel twice and year, and it is wonderful how it is completely reliable.  This is not your upscale hotel with the restaurant and the lobby bar.  I stay here for the kitchen and living space.  The staff is always so friendly and so helpful.  The hotel is spotless, the rooms are clean and it is so pleasant to have the kitchen and living room area.  The laundry and the computer area with printers are always welcome when I'm on the road for more than a few weeks.  But it is the front desk staff that really make the difference for me.  Just great.</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r6650692-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>6650692</t>
+  </si>
+  <si>
+    <t>01/22/2007</t>
+  </si>
+  <si>
+    <t>Home Suite Home...</t>
+  </si>
+  <si>
+    <t>All combined I spend over 6 months a year in Hotels and the Staybridge Suites Hotel in Houston is an Excellent hotel for Extended Stay or Family guests.  In addition to the Kitchenette equiped with pots/pans/dishwasher, the hotel has a great hot breakfast and an evening meal Tuesday - Thurs.  The Staff is Excellent.  After a couple of weeks here they are like family and very attentive to every request.  There is a great little shop by the lobby where you can purchase most things you might forget.  They even have stocked some of my favorite Items at my request so that they are there for me without making a trip to the store.  --If you are in town to go to the Space Center and other Kid friendly tourist attractions, the location of this hotel may be a little out of the way.  In the Summer, there are often groups of people cooking out on the grill and ejoying a bottle of wine.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2006</t>
+  </si>
+  <si>
+    <t>All combined I spend over 6 months a year in Hotels and the Staybridge Suites Hotel in Houston is an Excellent hotel for Extended Stay or Family guests.  In addition to the Kitchenette equiped with pots/pans/dishwasher, the hotel has a great hot breakfast and an evening meal Tuesday - Thurs.  The Staff is Excellent.  After a couple of weeks here they are like family and very attentive to every request.  There is a great little shop by the lobby where you can purchase most things you might forget.  They even have stocked some of my favorite Items at my request so that they are there for me without making a trip to the store.  --If you are in town to go to the Space Center and other Kid friendly tourist attractions, the location of this hotel may be a little out of the way.  In the Summer, there are often groups of people cooking out on the grill and ejoying a bottle of wine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r5596908-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>5596908</t>
+  </si>
+  <si>
+    <t>08/09/2006</t>
+  </si>
+  <si>
+    <t>Great Place!</t>
+  </si>
+  <si>
+    <t>Staybridge Suites Houston West is a new, bright &amp; clean property with amazingly friendly staff.  The rooms are cozy and the free breakfasts are great.  Each night there is a manager's reception in the lobby lounge with drinks and appetizers.  A beautiful fireplace with comfy couches and tables &amp; chairs to socialize or watch TV.  I've stayed here twice so far and both times there have been families staying as well.  There are bachelors, 1 &amp; 2 bedroom suites.  Each has a sofa or 2 arm chairs, full kitchen with dishes, utensils, table &amp; chairs or island breakfast nook.  The decor is modern although warm and welcoming.  My travel agent made a mistake this time and booked me into the Staybridge across town.  This site was sold out so I had to cross the street to the Mariott Residence Inn and all I can say is "yuck"!  Cold and uninviting.  Staybridge has a fenced in pool with tons of towels, a BBQ area and ample parking.  The staff, especially Lauren &amp; Norma at the front desk, bend over backwards to make you feel welcome.  Negotiate rates too.  If you're staying a week or longer, you can get down to around $80 per night.  Awesome place!MoreShow less</t>
+  </si>
+  <si>
+    <t>Staybridge Suites Houston West is a new, bright &amp; clean property with amazingly friendly staff.  The rooms are cozy and the free breakfasts are great.  Each night there is a manager's reception in the lobby lounge with drinks and appetizers.  A beautiful fireplace with comfy couches and tables &amp; chairs to socialize or watch TV.  I've stayed here twice so far and both times there have been families staying as well.  There are bachelors, 1 &amp; 2 bedroom suites.  Each has a sofa or 2 arm chairs, full kitchen with dishes, utensils, table &amp; chairs or island breakfast nook.  The decor is modern although warm and welcoming.  My travel agent made a mistake this time and booked me into the Staybridge across town.  This site was sold out so I had to cross the street to the Mariott Residence Inn and all I can say is "yuck"!  Cold and uninviting.  Staybridge has a fenced in pool with tons of towels, a BBQ area and ample parking.  The staff, especially Lauren &amp; Norma at the front desk, bend over backwards to make you feel welcome.  Negotiate rates too.  If you're staying a week or longer, you can get down to around $80 per night.  Awesome place!More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1766,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1798,3796 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" t="s">
+        <v>105</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>118</v>
+      </c>
+      <c r="X12" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>126</v>
+      </c>
+      <c r="O13" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>129</v>
+      </c>
+      <c r="J14" t="s">
+        <v>130</v>
+      </c>
+      <c r="K14" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14" t="s">
+        <v>132</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>133</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>134</v>
+      </c>
+      <c r="X14" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K15" t="s">
+        <v>140</v>
+      </c>
+      <c r="L15" t="s">
+        <v>141</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>142</v>
+      </c>
+      <c r="O15" t="s">
+        <v>143</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J16" t="s">
+        <v>146</v>
+      </c>
+      <c r="K16" t="s">
+        <v>147</v>
+      </c>
+      <c r="L16" t="s">
+        <v>148</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>149</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>151</v>
+      </c>
+      <c r="J17" t="s">
+        <v>152</v>
+      </c>
+      <c r="K17" t="s">
+        <v>153</v>
+      </c>
+      <c r="L17" t="s">
+        <v>154</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>157</v>
+      </c>
+      <c r="J18" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18" t="s">
+        <v>159</v>
+      </c>
+      <c r="L18" t="s">
+        <v>160</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>161</v>
+      </c>
+      <c r="O18" t="s">
+        <v>66</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>164</v>
+      </c>
+      <c r="J19" t="s">
+        <v>165</v>
+      </c>
+      <c r="K19" t="s">
+        <v>166</v>
+      </c>
+      <c r="L19" t="s">
+        <v>167</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>161</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>169</v>
+      </c>
+      <c r="J20" t="s">
+        <v>170</v>
+      </c>
+      <c r="K20" t="s">
+        <v>171</v>
+      </c>
+      <c r="L20" t="s">
+        <v>172</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>111</v>
+      </c>
+      <c r="O20" t="s">
+        <v>66</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>173</v>
+      </c>
+      <c r="X20" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>176</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>177</v>
+      </c>
+      <c r="J21" t="s">
+        <v>178</v>
+      </c>
+      <c r="K21" t="s">
+        <v>179</v>
+      </c>
+      <c r="L21" t="s">
+        <v>180</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>181</v>
+      </c>
+      <c r="X21" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>184</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>185</v>
+      </c>
+      <c r="J22" t="s">
+        <v>186</v>
+      </c>
+      <c r="K22" t="s">
+        <v>187</v>
+      </c>
+      <c r="L22" t="s">
+        <v>188</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>189</v>
+      </c>
+      <c r="O22" t="s">
+        <v>66</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>190</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>191</v>
+      </c>
+      <c r="J23" t="s">
+        <v>192</v>
+      </c>
+      <c r="K23" t="s">
+        <v>193</v>
+      </c>
+      <c r="L23" t="s">
+        <v>194</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>195</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>196</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>197</v>
+      </c>
+      <c r="J24" t="s">
+        <v>198</v>
+      </c>
+      <c r="K24" t="s">
+        <v>199</v>
+      </c>
+      <c r="L24" t="s">
+        <v>200</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>195</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>201</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>202</v>
+      </c>
+      <c r="J25" t="s">
+        <v>198</v>
+      </c>
+      <c r="K25" t="s">
+        <v>203</v>
+      </c>
+      <c r="L25" t="s">
+        <v>204</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>205</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>206</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>207</v>
+      </c>
+      <c r="J26" t="s">
+        <v>208</v>
+      </c>
+      <c r="K26" t="s">
+        <v>209</v>
+      </c>
+      <c r="L26" t="s">
+        <v>210</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>211</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>212</v>
+      </c>
+      <c r="X26" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>215</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>216</v>
+      </c>
+      <c r="J27" t="s">
+        <v>217</v>
+      </c>
+      <c r="K27" t="s">
+        <v>218</v>
+      </c>
+      <c r="L27" t="s">
+        <v>219</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>220</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>221</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>222</v>
+      </c>
+      <c r="J28" t="s">
+        <v>223</v>
+      </c>
+      <c r="K28" t="s">
+        <v>224</v>
+      </c>
+      <c r="L28" t="s">
+        <v>225</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>226</v>
+      </c>
+      <c r="O28" t="s">
+        <v>66</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>227</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>228</v>
+      </c>
+      <c r="J29" t="s">
+        <v>229</v>
+      </c>
+      <c r="K29" t="s">
+        <v>230</v>
+      </c>
+      <c r="L29" t="s">
+        <v>231</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>232</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>233</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>234</v>
+      </c>
+      <c r="J30" t="s">
+        <v>235</v>
+      </c>
+      <c r="K30" t="s">
+        <v>236</v>
+      </c>
+      <c r="L30" t="s">
+        <v>237</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>238</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>239</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>240</v>
+      </c>
+      <c r="J31" t="s">
+        <v>241</v>
+      </c>
+      <c r="K31" t="s">
+        <v>242</v>
+      </c>
+      <c r="L31" t="s">
+        <v>243</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>238</v>
+      </c>
+      <c r="O31" t="s">
+        <v>105</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>245</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>246</v>
+      </c>
+      <c r="J32" t="s">
+        <v>247</v>
+      </c>
+      <c r="K32" t="s">
+        <v>248</v>
+      </c>
+      <c r="L32" t="s">
+        <v>249</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>250</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>251</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>252</v>
+      </c>
+      <c r="J33" t="s">
+        <v>253</v>
+      </c>
+      <c r="K33" t="s">
+        <v>254</v>
+      </c>
+      <c r="L33" t="s">
+        <v>255</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>250</v>
+      </c>
+      <c r="O33" t="s">
+        <v>105</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>256</v>
+      </c>
+      <c r="X33" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>259</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>260</v>
+      </c>
+      <c r="J34" t="s">
+        <v>261</v>
+      </c>
+      <c r="K34" t="s">
+        <v>262</v>
+      </c>
+      <c r="L34" t="s">
+        <v>263</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>264</v>
+      </c>
+      <c r="O34" t="s">
+        <v>66</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>265</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>266</v>
+      </c>
+      <c r="J35" t="s">
+        <v>267</v>
+      </c>
+      <c r="K35" t="s">
+        <v>268</v>
+      </c>
+      <c r="L35" t="s">
+        <v>269</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>270</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>272</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>273</v>
+      </c>
+      <c r="J36" t="s">
+        <v>274</v>
+      </c>
+      <c r="K36" t="s">
+        <v>275</v>
+      </c>
+      <c r="L36" t="s">
+        <v>276</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>278</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>279</v>
+      </c>
+      <c r="J37" t="s">
+        <v>280</v>
+      </c>
+      <c r="K37" t="s">
+        <v>281</v>
+      </c>
+      <c r="L37" t="s">
+        <v>282</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>283</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>285</v>
+      </c>
+      <c r="J38" t="s">
+        <v>286</v>
+      </c>
+      <c r="K38" t="s">
+        <v>287</v>
+      </c>
+      <c r="L38" t="s">
+        <v>288</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>289</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>290</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>291</v>
+      </c>
+      <c r="J39" t="s">
+        <v>292</v>
+      </c>
+      <c r="K39" t="s">
+        <v>293</v>
+      </c>
+      <c r="L39" t="s">
+        <v>294</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>295</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>296</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>297</v>
+      </c>
+      <c r="J40" t="s">
+        <v>298</v>
+      </c>
+      <c r="K40" t="s">
+        <v>299</v>
+      </c>
+      <c r="L40" t="s">
+        <v>300</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>301</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>303</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>304</v>
+      </c>
+      <c r="J41" t="s">
+        <v>305</v>
+      </c>
+      <c r="K41" t="s">
+        <v>306</v>
+      </c>
+      <c r="L41" t="s">
+        <v>307</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>295</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>308</v>
+      </c>
+      <c r="X41" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>311</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>312</v>
+      </c>
+      <c r="J42" t="s">
+        <v>313</v>
+      </c>
+      <c r="K42" t="s">
+        <v>314</v>
+      </c>
+      <c r="L42" t="s">
+        <v>315</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>316</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>318</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>319</v>
+      </c>
+      <c r="J43" t="s">
+        <v>320</v>
+      </c>
+      <c r="K43" t="s">
+        <v>321</v>
+      </c>
+      <c r="L43" t="s">
+        <v>322</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>316</v>
+      </c>
+      <c r="O43" t="s">
+        <v>105</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>323</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>324</v>
+      </c>
+      <c r="J44" t="s">
+        <v>325</v>
+      </c>
+      <c r="K44" t="s">
+        <v>326</v>
+      </c>
+      <c r="L44" t="s">
+        <v>327</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>328</v>
+      </c>
+      <c r="O44" t="s">
+        <v>105</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>329</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>330</v>
+      </c>
+      <c r="J45" t="s">
+        <v>331</v>
+      </c>
+      <c r="K45" t="s">
+        <v>332</v>
+      </c>
+      <c r="L45" t="s">
+        <v>333</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>334</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>335</v>
+      </c>
+      <c r="X45" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>338</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>339</v>
+      </c>
+      <c r="J46" t="s">
+        <v>340</v>
+      </c>
+      <c r="K46" t="s">
+        <v>341</v>
+      </c>
+      <c r="L46" t="s">
+        <v>342</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>343</v>
+      </c>
+      <c r="O46" t="s">
+        <v>105</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>344</v>
+      </c>
+      <c r="X46" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>347</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>348</v>
+      </c>
+      <c r="J47" t="s">
+        <v>349</v>
+      </c>
+      <c r="K47" t="s">
+        <v>350</v>
+      </c>
+      <c r="L47" t="s">
+        <v>351</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>352</v>
+      </c>
+      <c r="O47" t="s">
+        <v>143</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>353</v>
+      </c>
+      <c r="X47" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>356</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>357</v>
+      </c>
+      <c r="J48" t="s">
+        <v>358</v>
+      </c>
+      <c r="K48" t="s">
+        <v>359</v>
+      </c>
+      <c r="L48" t="s">
+        <v>360</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>361</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>362</v>
+      </c>
+      <c r="X48" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>365</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>366</v>
+      </c>
+      <c r="J49" t="s">
+        <v>367</v>
+      </c>
+      <c r="K49" t="s">
+        <v>368</v>
+      </c>
+      <c r="L49" t="s">
+        <v>369</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>370</v>
+      </c>
+      <c r="X49" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>373</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>374</v>
+      </c>
+      <c r="J50" t="s">
+        <v>375</v>
+      </c>
+      <c r="K50" t="s">
+        <v>376</v>
+      </c>
+      <c r="L50" t="s">
+        <v>377</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>378</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>380</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>381</v>
+      </c>
+      <c r="J51" t="s">
+        <v>382</v>
+      </c>
+      <c r="K51" t="s">
+        <v>383</v>
+      </c>
+      <c r="L51" t="s">
+        <v>384</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>385</v>
+      </c>
+      <c r="X51" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>388</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>389</v>
+      </c>
+      <c r="J52" t="s">
+        <v>390</v>
+      </c>
+      <c r="K52" t="s">
+        <v>391</v>
+      </c>
+      <c r="L52" t="s">
+        <v>392</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>378</v>
+      </c>
+      <c r="O52" t="s">
+        <v>105</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>385</v>
+      </c>
+      <c r="X52" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>394</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>395</v>
+      </c>
+      <c r="J53" t="s">
+        <v>396</v>
+      </c>
+      <c r="K53" t="s">
+        <v>397</v>
+      </c>
+      <c r="L53" t="s">
+        <v>398</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>399</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>400</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>401</v>
+      </c>
+      <c r="J54" t="s">
+        <v>402</v>
+      </c>
+      <c r="K54" t="s">
+        <v>403</v>
+      </c>
+      <c r="L54" t="s">
+        <v>404</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>405</v>
+      </c>
+      <c r="O54" t="s">
+        <v>105</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>406</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>407</v>
+      </c>
+      <c r="J55" t="s">
+        <v>408</v>
+      </c>
+      <c r="K55" t="s">
+        <v>409</v>
+      </c>
+      <c r="L55" t="s">
+        <v>410</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>411</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>412</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>413</v>
+      </c>
+      <c r="J56" t="s">
+        <v>414</v>
+      </c>
+      <c r="K56" t="s">
+        <v>415</v>
+      </c>
+      <c r="L56" t="s">
+        <v>416</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>417</v>
+      </c>
+      <c r="O56" t="s">
+        <v>105</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>419</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>420</v>
+      </c>
+      <c r="J57" t="s">
+        <v>421</v>
+      </c>
+      <c r="K57" t="s">
+        <v>422</v>
+      </c>
+      <c r="L57" t="s">
+        <v>423</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>424</v>
+      </c>
+      <c r="O57" t="s">
+        <v>66</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>426</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>427</v>
+      </c>
+      <c r="J58" t="s">
+        <v>428</v>
+      </c>
+      <c r="K58" t="s">
+        <v>429</v>
+      </c>
+      <c r="L58" t="s">
+        <v>430</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>431</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>432</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>433</v>
+      </c>
+      <c r="J59" t="s">
+        <v>434</v>
+      </c>
+      <c r="K59" t="s">
+        <v>435</v>
+      </c>
+      <c r="L59" t="s">
+        <v>436</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>437</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>439</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>440</v>
+      </c>
+      <c r="J60" t="s">
+        <v>441</v>
+      </c>
+      <c r="K60" t="s">
+        <v>442</v>
+      </c>
+      <c r="L60" t="s">
+        <v>443</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>437</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>444</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_606.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_606.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="698">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,69 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/13/2018</t>
+    <t>09/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r604891550-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>596014</t>
+  </si>
+  <si>
+    <t>604891550</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>Stayed here twice for business trips. The first one was for almost three months and the second trip was for three weeks. The rooms are big enough for a solo traveler or couples, and they are really clean. Beds are comfortable and I slept well all the time, despite the jet-lagged. Loving the get together/ mingle session called "The Social". Free flow of beers and wines *wink* Shuttle is provided for the business travelers like us. There's laundry on the ground floor and you can lounge while waiting.What I love the most is the staffs. They are friendly, very welcoming and accommodating. Makes me feel like home. Always recommending what-to-do's in Houston.Highly recommended!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Stayed here twice for business trips. The first one was for almost three months and the second trip was for three weeks. The rooms are big enough for a solo traveler or couples, and they are really clean. Beds are comfortable and I slept well all the time, despite the jet-lagged. Loving the get together/ mingle session called "The Social". Free flow of beers and wines *wink* Shuttle is provided for the business travelers like us. There's laundry on the ground floor and you can lounge while waiting.What I love the most is the staffs. They are friendly, very welcoming and accommodating. Makes me feel like home. Always recommending what-to-do's in Houston.Highly recommended!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r583419456-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>583419456</t>
+  </si>
+  <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t>Homs from home</t>
+  </si>
+  <si>
+    <t>After almost a 12 month stay I can honestly say this is my home from home.Manager Jon and team Mayer, Misty, Rebecca plus many more always go the extra mile to welcome and make you feel relaxed In 40 years of business Travel this is the Best place I ever stayed Pete wallerMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>jonlau828, General Manager at Staybridge Suites Houston West / Energy Corridor, responded to this reviewResponded May 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2018</t>
+  </si>
+  <si>
+    <t>After almost a 12 month stay I can honestly say this is my home from home.Manager Jon and team Mayer, Misty, Rebecca plus many more always go the extra mile to welcome and make you feel relaxed In 40 years of business Travel this is the Best place I ever stayed Pete wallerMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r593871721-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>596014</t>
-  </si>
-  <si>
     <t>593871721</t>
   </si>
   <si>
@@ -174,12 +225,6 @@
     <t>one of the rare occasions, when the overall experience in real life is much better than it seemed online - and this is because i guess the photos were taken before the renovations.the staff was really friendly and accomodating, and the value was excellent.most of the public places were nicely updated in the last years, however the suite itself was a bit dated, but was well-equipped and had a good, spacious layout. the pool and the garden lounge was really amazing and well-maintained.location is pretty good for doing stuff in the energy corridor area. all of the large company hqs are within a 10-min drive, and there are a few nice restaurants in walking distance.MoreShow less</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>one of the rare occasions, when the overall experience in real life is much better than it seemed online - and this is because i guess the photos were taken before the renovations.the staff was really friendly and accomodating, and the value was excellent.most of the public places were nicely updated in the last years, however the suite itself was a bit dated, but was well-equipped and had a good, spacious layout. the pool and the garden lounge was really amazing and well-maintained.location is pretty good for doing stuff in the energy corridor area. all of the large company hqs are within a 10-min drive, and there are a few nice restaurants in walking distance.More</t>
   </si>
   <si>
@@ -219,6 +264,42 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r579593756-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>579593756</t>
+  </si>
+  <si>
+    <t>05/12/2018</t>
+  </si>
+  <si>
+    <t>A lovely hotel</t>
+  </si>
+  <si>
+    <t>Have stayed in this hotel for a week on a business trip. Although the decor is quite basic, but the rooms are clean and spacious. It has a sofa and kitchenette in the room.For breakfast you have quite a variety to choose from. You can even pack your breakfast on the go.There is free dinner Mon to Wed which is called as social event which I thought is so nice to have if you don't feel like going out.There is a gym although very small, haven't used but will try next time. The swimming pool area seemed nice.The staff are all very friendly and helpful.Overall I had a good experience and have booked our next stay there too.It's very close to I-10 and easy to get around. Has few places close by for eating out.MoreShow less</t>
+  </si>
+  <si>
+    <t>Have stayed in this hotel for a week on a business trip. Although the decor is quite basic, but the rooms are clean and spacious. It has a sofa and kitchenette in the room.For breakfast you have quite a variety to choose from. You can even pack your breakfast on the go.There is free dinner Mon to Wed which is called as social event which I thought is so nice to have if you don't feel like going out.There is a gym although very small, haven't used but will try next time. The swimming pool area seemed nice.The staff are all very friendly and helpful.Overall I had a good experience and have booked our next stay there too.It's very close to I-10 and easy to get around. Has few places close by for eating out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r574174859-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>574174859</t>
+  </si>
+  <si>
+    <t>04/18/2018</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Really good! I was on a business trip and this hotel exceeded my expectations. Nice room, acommodations and very completed breakfast. The service at the front desk was kind. Location is close to energy offices building and restaurants.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r571342896-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -282,6 +363,42 @@
     <t>January 2018</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r554492112-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>554492112</t>
+  </si>
+  <si>
+    <t>01/17/2018</t>
+  </si>
+  <si>
+    <t>Pleasantly Surprised!</t>
+  </si>
+  <si>
+    <t>We booked for a two night stay on the recommendation of a friend.  We checked into our room and found a great space with a sofa, kitchenette, fridge, microwave, sink, dishes, etc.  They also had some complimentary treats for us.  The layout is good, allows someone to be in vanity area separate from toilet and tub.  Granite on walls in bathtub. Nice towels.  They offer breakfast but we did not eat (other plans). It seems that during the week, they offer some type of dinner. We would definitely stay again. Price was very good for the value and comfort.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r541633539-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>541633539</t>
+  </si>
+  <si>
+    <t>11/17/2017</t>
+  </si>
+  <si>
+    <t>Houston we have Landed!</t>
+  </si>
+  <si>
+    <t>This was my first trip to the USA and I have to say we were well looked after by our work colleagues, all the Taxi drivers we used and the lovely staff at this Hotel. Top marks to all the Staff ! From check in the bar-tender that served us it was top quality service from start to finish nothing was too much trouble. Special thanks to the room cleaning staff who did a wonderful job every day. Great to come back to a spotlessly clean room each of the 4 nights I stayed. Staff very helpful at sorting taxi's and recommending places to eat. A small shop on site was useful also for food, beverages etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>This was my first trip to the USA and I have to say we were well looked after by our work colleagues, all the Taxi drivers we used and the lovely staff at this Hotel. Top marks to all the Staff ! From check in the bar-tender that served us it was top quality service from start to finish nothing was too much trouble. Special thanks to the room cleaning staff who did a wonderful job every day. Great to come back to a spotlessly clean room each of the 4 nights I stayed. Staff very helpful at sorting taxi's and recommending places to eat. A small shop on site was useful also for food, beverages etc.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r520919483-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -312,9 +429,6 @@
     <t xml:space="preserve">I have been in the Staybridge since mid August, and must say I have never stayed in such a friendly homely place anywhere in the world. The manager Jon and his staff could not be more helpful. Even as Hurricane Harvey tore its way across Texas and flooded massive areas including the front and rear car parks Jon and staff continued business as normal, in fact more than normal, they exceeded my expectation Thanks very much to one and allPete </t>
   </si>
   <si>
-    <t>September 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r503897398-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -334,6 +448,36 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r485268989-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>485268989</t>
+  </si>
+  <si>
+    <t>05/18/2017</t>
+  </si>
+  <si>
+    <t>Pretty good for longer stay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All in all a pretty good hotel. Staff are friendly and helpful. Rooms are comfortably furnished and pretty quiet. Probably wouldn't have stayed here if it was just for a few days but as rooms have small kitchen is ideal for those longer stay guests  (I was there for the month) as you are able to cook your own meals should you choose to do so.I would have no reservations in staying again in the future. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r484787450-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>484787450</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>Excellent hotel, satistfaction guranteed</t>
+  </si>
+  <si>
+    <t>This hotel offers suites that are equipped with kitchenette, and a frig with ice maker.  Seperate living, bathroom, and bedroom.  Dinner mon through wed with wine and beer.  Hotel neat and clean, not outdated.  Breakfast is good, not cheap and stale.  Outside pool and covered area.  Staff is courteous, helpful, and will go out of their way to make sure your stay is well.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r480689854-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
@@ -408,6 +552,48 @@
 The...Unlike a lot of hotel chains, you pretty much know what to expect from Staybridge properties that are also part of IHG. You know you'll be walking into a very nice, attractive property with a beautiful lobby/lounge area. You know that your room is going to be spacious, have a kitchen, and a small bathroom. Lastly, you'll know the breakfast will be pretty decent. I have no problems with this hotel at all, as it met my expectations and gave me a comfortable one-night stay in Houston. Let's get into a little more detail:Upon check-in, my IHG Platinum status was recognized and I was offered a room upgrade from a  studio to a suite. I was also offered a snack and a drink. This was nice as many hotels in this portfolio are just not recognizing status as much, but again you can always expect Staybridge to deliver. There were only several floors in this hotel, so after a very short elevator ride we arrived in our spacious suite that had a living area, a kitchen, and a master bedroom. Everything worked like it should have and we were comfortable. I also had the opportunity to use the fitness center which is connected to the laundry room. Fun fact, I think laundry is free here! The fitness center was good for a small hotel, and offered cardio machines, weight machines, and free weights which was perfect for me. The breakfast the next day was a bit chaotic. They don't have much indoor seating and we were forced to eat by the pool, which is small but sufficient. They also had an outdoor fire pit/social area but that was taken up as well. The breakfast spread consisted of cheese omelets, bacon, breads/pastries, frozen fruits, yogurt, a waffle maker, and some juices. You always appreciate the hot options in a complementary breakfast buffet, but this hotel's items weren't very good, to be honest. The location is also a few minutes away from I-10 which can connect you to the rest of Houston rather quickly if you avoid high-traffic times. Around the immediate area, you'll find restaurants, grocery stores, and pharmacies. The neighborhood is quiet and safe as well. Overall, I enjoyed my stay. Besides my breakfast experience, everything else about this hotel was what I had expected, if not more. I would not hesitate to stay here again if I need to be in the area for work or to visit friends. I recommend this property!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r474271818-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>474271818</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>Wonderful Place to Stay</t>
+  </si>
+  <si>
+    <t>This was the first time we have tried Staybridge Suites but it will "definitely" be our "go to place" again wherever we travel. It had a  beautiful  and elegant atmosphere starting in the lobby and carried throughout and on into the outside landscaping. It made us just want to walk around and enjoy the good feeling. The breakfast had so many choices and tasted excellent. Most important was the friendliness of ALL the staff we met. You could tell they took pride in this place . One more thing---check-out was at 12 noon.! One extra hour makes a lot of difference to not feel rushed in leaving!  Thanks to all!!  MoreShow less</t>
+  </si>
+  <si>
+    <t>This was the first time we have tried Staybridge Suites but it will "definitely" be our "go to place" again wherever we travel. It had a  beautiful  and elegant atmosphere starting in the lobby and carried throughout and on into the outside landscaping. It made us just want to walk around and enjoy the good feeling. The breakfast had so many choices and tasted excellent. Most important was the friendliness of ALL the staff we met. You could tell they took pride in this place . One more thing---check-out was at 12 noon.! One extra hour makes a lot of difference to not feel rushed in leaving!  Thanks to all!!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r467349353-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>467349353</t>
+  </si>
+  <si>
+    <t>03/14/2017</t>
+  </si>
+  <si>
+    <t>Clean, Quiet - enjoyable</t>
+  </si>
+  <si>
+    <t>It was a peaceful stay - staff is really friendly - rooms are OK, comfortable. Plus - big bed, good LCD TV, kitchen appliances, outside fire pit, wifi. Minus - shower head clogged by limestone, cooling/heating unit is too close to the bed and it is annoying during the night, breakfast is not so diverse, general cleaning once a week.MoreShow less</t>
+  </si>
+  <si>
+    <t>jonlau828, General Manager at Staybridge Suites Houston West / Energy Corridor, responded to this reviewResponded March 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2017</t>
+  </si>
+  <si>
+    <t>It was a peaceful stay - staff is really friendly - rooms are OK, comfortable. Plus - big bed, good LCD TV, kitchen appliances, outside fire pit, wifi. Minus - shower head clogged by limestone, cooling/heating unit is too close to the bed and it is annoying during the night, breakfast is not so diverse, general cleaning once a week.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r457320633-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -474,6 +660,42 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r432450045-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>432450045</t>
+  </si>
+  <si>
+    <t>10/28/2016</t>
+  </si>
+  <si>
+    <t>Good Stay</t>
+  </si>
+  <si>
+    <t>The checkin was very slow, the gentleman that checked me in took over 30 mins, maybe more. I was the only guest checking in so not sure what the issue was. However this location was clean and well kept. The size of the room was great , it was a 2 bedroom suite  with 2 queen beds and a little kitchen and liv room. there was enough space for a family of 4 comfortably.  Breakfast was OK, overall I would definitely recommend to someone that needs a nice room in that area.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r427081746-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>427081746</t>
+  </si>
+  <si>
+    <t>10/11/2016</t>
+  </si>
+  <si>
+    <t>Nice accommodation !!!</t>
+  </si>
+  <si>
+    <t>This is my second stay at this hotel. It's a very functional hotel. The staff are excellent in terms of service delivery and are friendly too. The accommodation may not be the best around but I like the arrangement and you will certainly feel at home there.Breakfast is very basic but it's included in the bed. No lunch or dinner is served but you can order meal or eat out in one of the restaurants around.The rooms are light cleaned everyday but thorough cleaning is once a week if I'm not mistaking.There is a gym and laundry downstair. You can take care of you laundry by yourself if you choose to.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is my second stay at this hotel. It's a very functional hotel. The staff are excellent in terms of service delivery and are friendly too. The accommodation may not be the best around but I like the arrangement and you will certainly feel at home there.Breakfast is very basic but it's included in the bed. No lunch or dinner is served but you can order meal or eat out in one of the restaurants around.The rooms are light cleaned everyday but thorough cleaning is once a week if I'm not mistaking.There is a gym and laundry downstair. You can take care of you laundry by yourself if you choose to.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r424654240-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -526,6 +748,42 @@
   </si>
   <si>
     <t>Hidden gem within the energy corridor.   Very close to work, nice, clean, breakfast each morning, great selection of breakfast.    Even happy hour every mon, tues, and wednesday (only nights I stayed so could be more).   I had a chance to stay here this past week and I was surprised.  Now that I am staying an additional 2 weeks, this is my place.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r415451417-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>415451417</t>
+  </si>
+  <si>
+    <t>09/06/2016</t>
+  </si>
+  <si>
+    <t>Nice Place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My family and I stayed here for 4 days/3 nights. We had the two bedroom suite. Great use of space. It had a two burner with a refrigerator. Beds were comfy. My only complaint, I guess, was the creepy floors. I'm not sure if that can be fixed. I know nothing about structure. I just know it was annoying but we dealt with it. The breakfast buffet was amazing. We also made use of the outside space to include the grill. We had a family bbq. Anyway, it was a nice place to stay with creeky floors on the 4th floor. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r401004044-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>401004044</t>
+  </si>
+  <si>
+    <t>08/03/2016</t>
+  </si>
+  <si>
+    <t>Houston Home Away from Home</t>
+  </si>
+  <si>
+    <t>The Staybridge Suites Houston West / Energy Corridor is my Houston home away from home when we come in to visit family.  Jon Lau (GM) and his staff go above and beyond to take care of the needs of their guests.  Jon took time to help me modify an existing reservation and make some changes so my son and I had the room we needed when we arrived and I realized I had booked the wrong room type – he spent time finding the best option for us so we didn’t have to switch rooms during our stay.  Once in our room, my laptop mouse needed a battery and I called down to see if I could buy one in their small store and in less than five minutes one was brought to our room at no cost.  The weekly happy hour and dinner are great and the breakfast and coffee service every morning is super as well.  No other place to stay for us.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>The Staybridge Suites Houston West / Energy Corridor is my Houston home away from home when we come in to visit family.  Jon Lau (GM) and his staff go above and beyond to take care of the needs of their guests.  Jon took time to help me modify an existing reservation and make some changes so my son and I had the room we needed when we arrived and I realized I had booked the wrong room type – he spent time finding the best option for us so we didn’t have to switch rooms during our stay.  Once in our room, my laptop mouse needed a battery and I called down to see if I could buy one in their small store and in less than five minutes one was brought to our room at no cost.  The weekly happy hour and dinner are great and the breakfast and coffee service every morning is super as well.  No other place to stay for us.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r386436376-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
@@ -600,6 +858,45 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r367570509-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>367570509</t>
+  </si>
+  <si>
+    <t>04/25/2016</t>
+  </si>
+  <si>
+    <t>'Fancy' according to the 6-year old</t>
+  </si>
+  <si>
+    <t>We have stayed in many hotels in the nearby area of Houston. This was by far our favorite. We stayed in a king 2-bedroom suite. The 2-bathrooms was a wonderful addition for our family. The breakfast was well-stocked and served a variety of foods. The front desk was very helpful and friendly to our kiddos. Even helped us find some scrap paper for a 3-year old artist. Our boys thoroughly enjoyed the pool, and I enjoyed the extra room around the pool to relax without getting soaked by two enthusiastic swimmers. The hotel is a short walk to a variety of food places, with even more just down the road. Very convenient to many things. And the free laundry was amazing for a family that tries to pack lightly! We will definitely stay here next time we are in town. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>We have stayed in many hotels in the nearby area of Houston. This was by far our favorite. We stayed in a king 2-bedroom suite. The 2-bathrooms was a wonderful addition for our family. The breakfast was well-stocked and served a variety of foods. The front desk was very helpful and friendly to our kiddos. Even helped us find some scrap paper for a 3-year old artist. Our boys thoroughly enjoyed the pool, and I enjoyed the extra room around the pool to relax without getting soaked by two enthusiastic swimmers. The hotel is a short walk to a variety of food places, with even more just down the road. Very convenient to many things. And the free laundry was amazing for a family that tries to pack lightly! We will definitely stay here next time we are in town. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r361182563-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>361182563</t>
+  </si>
+  <si>
+    <t>04/03/2016</t>
+  </si>
+  <si>
+    <t>Good hotel with kids</t>
+  </si>
+  <si>
+    <t>Love the place. Good breakfast . Kids friendly. Nice big rooms. Next day coffee was not put in by housekeeping. I reminded them at front desk to give me some. I was told they dont have it upfront but they will inform housekeeping to leave it in the room for morning but alas No coffee. So please refill coffee in the rooms atleast. Otherwise very good hotel. Nice bathrooms. Plenty of silverware in room. Good for extended stay with kids. Will stay again. Breakast include waffle machine, eggs, veggie patties, chicken patties, fruits, wolfgang puck's coffee( i love it). Humming noise coming from the bottom , i guess AC unit or something. Please check under room 228. Thanks. Good front desk peopleMoreShow less</t>
+  </si>
+  <si>
+    <t>Love the place. Good breakfast . Kids friendly. Nice big rooms. Next day coffee was not put in by housekeeping. I reminded them at front desk to give me some. I was told they dont have it upfront but they will inform housekeeping to leave it in the room for morning but alas No coffee. So please refill coffee in the rooms atleast. Otherwise very good hotel. Nice bathrooms. Plenty of silverware in room. Good for extended stay with kids. Will stay again. Breakast include waffle machine, eggs, veggie patties, chicken patties, fruits, wolfgang puck's coffee( i love it). Humming noise coming from the bottom , i guess AC unit or something. Please check under room 228. Thanks. Good front desk peopleMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r347503574-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -648,6 +945,48 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r335088774-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>335088774</t>
+  </si>
+  <si>
+    <t>12/26/2015</t>
+  </si>
+  <si>
+    <t>Merry Christmas to us! Great stay</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for 2 nights on christmas eve and christmas night. We enjoyed our stay. Our check in was easy, our room was very clean. The room is spacious. The bed is firm but comfortable. I usually hate hotel pillows but the pillows here are so comfortable. My head sunk in the pillow just right aligning my neck and spine to perfection. I woke up well rested without neck or back pain. The shower head is awesome, there's lots of water pressure. The towels are awesome to. I did smell sewage sometimes in the  bathroom which made a funky smell in room every now and then. Plenty of area to walk pets in. I did hear people walking above us a few times. Breakfast was good. We checked out at 2 am, I had to call the hotel to get front office person to come to office she sounded asleep when she answered phone and looked like she was asleep when she came to office. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for 2 nights on christmas eve and christmas night. We enjoyed our stay. Our check in was easy, our room was very clean. The room is spacious. The bed is firm but comfortable. I usually hate hotel pillows but the pillows here are so comfortable. My head sunk in the pillow just right aligning my neck and spine to perfection. I woke up well rested without neck or back pain. The shower head is awesome, there's lots of water pressure. The towels are awesome to. I did smell sewage sometimes in the  bathroom which made a funky smell in room every now and then. Plenty of area to walk pets in. I did hear people walking above us a few times. Breakfast was good. We checked out at 2 am, I had to call the hotel to get front office person to come to office she sounded asleep when she answered phone and looked like she was asleep when she came to office. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r331167870-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>331167870</t>
+  </si>
+  <si>
+    <t>12/07/2015</t>
+  </si>
+  <si>
+    <t>An Enjoyable Stay</t>
+  </si>
+  <si>
+    <t>Well I stayed at the Staybridge for around 8 months from August 2013 to March 2014.  It was convenient for my work and I was happy to stay here.  It could be social in the evening, 3 times per week you could have free food and alcohol (beer or wine), normally Tues, Wed, Thurs.  Nearby was a decent choice of bars or restaurants, plenty within a 10 minute walk.  Housekeeping cleaned 3 times per week and there was a nice pool area outside to soak up some sun. If you would be working in or around the Energy Corridor then this would be a suitable place to stay. There is a gym to use and also it is close to a park that can be used for cycling, jogging etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Well I stayed at the Staybridge for around 8 months from August 2013 to March 2014.  It was convenient for my work and I was happy to stay here.  It could be social in the evening, 3 times per week you could have free food and alcohol (beer or wine), normally Tues, Wed, Thurs.  Nearby was a decent choice of bars or restaurants, plenty within a 10 minute walk.  Housekeeping cleaned 3 times per week and there was a nice pool area outside to soak up some sun. If you would be working in or around the Energy Corridor then this would be a suitable place to stay. There is a gym to use and also it is close to a park that can be used for cycling, jogging etc.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r325163359-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -711,6 +1050,42 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r293760976-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>293760976</t>
+  </si>
+  <si>
+    <t>07/29/2015</t>
+  </si>
+  <si>
+    <t>Pleaseant Stay &amp; Great Hospitallity</t>
+  </si>
+  <si>
+    <t>I stayed here from Aug to Oct 2014 I liked the hotel room was comfortable with courteous room service and plus point of this hotel is there social nights its pretty good with ample of food option and varition across days in week most importantly they Had Indian &amp; Vegetarian Food on social nights to take care of fellow indians staying in hotel and they make sure to let us know if there will be available something if not in1st place.Breakfast were also good fresh and ample fruits than any other counterparts i stayed in US.Advantage of this place is near to Energy Corridor business area so you don't have to drive long to reach office Overall Great experience and will definitely stay here when m back to Houston in near future.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>I stayed here from Aug to Oct 2014 I liked the hotel room was comfortable with courteous room service and plus point of this hotel is there social nights its pretty good with ample of food option and varition across days in week most importantly they Had Indian &amp; Vegetarian Food on social nights to take care of fellow indians staying in hotel and they make sure to let us know if there will be available something if not in1st place.Breakfast were also good fresh and ample fruits than any other counterparts i stayed in US.Advantage of this place is near to Energy Corridor business area so you don't have to drive long to reach office Overall Great experience and will definitely stay here when m back to Houston in near future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r286701985-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>286701985</t>
+  </si>
+  <si>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t>Best hotel in Houston</t>
+  </si>
+  <si>
+    <t>We stayed here on our trip to Texas over 4th of July Weekend and booked online for a double room suite. Were blown away with the size and cleanliness. We normally stay at Candlewood but this will be our new lodging choice going forwad. We were 2 adults, 2 kids over 12 and one 11 year old. With the pull out couch and small Kitchenette worked out very well for us. We needed the kitchen for getting up like 3 in the morning for sahoor and it worked perfectly for us. Will definitely go again!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r279639276-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -765,6 +1140,39 @@
     <t>Stayed in this property from May 15 thru May 18th.  This is a very nice property!  The rooms were very clean.  Dogs are allowed, however the fee is PER PET each stay. They provide breakfast and it is everything you need to get going, including eggs.  milk, waffles, yogurt, etc. The corn dogs one morning instead of sausage I found strange one morning, but my boyfriend was excited about the corn dogs for breakfast. They have a clean pool, nice outdoor sitting areas with a gas fire pit, and a grill with a covered area.  The gym was very nice and has everything you needed.  There was a laundry room as well. The area was near many options to eat including a grocery store down the street. My stay was very quiet. The property looked spic and span to me.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r272580206-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>272580206</t>
+  </si>
+  <si>
+    <t>05/17/2015</t>
+  </si>
+  <si>
+    <t>Best hospitality in all of Houston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here for 5 weeks on business in one of the studios, and it was a very comfortable stay. Big thanks to Jon, Norma, Jose and the other staff for making everybody feel at home. Rooms are spacious and comfortable. The hotel is a quick 5 mins drive from all the offices of energy giants in the corridor (15mins in the morning traffic). There are daily shuttle to send you to nearby offices or malls. Great restaurants within walking distance. Will definitely stay here again when I'm back. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r270915718-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>270915718</t>
+  </si>
+  <si>
+    <t>05/09/2015</t>
+  </si>
+  <si>
+    <t>Lots of amenities; a little noisy though</t>
+  </si>
+  <si>
+    <t>As the name says, the rooms are suite-type with a small kitchen area and a small living room. What impressed me the most was the comprehensive services available in a modest area. The hot breakfast was OK, served in the middle of the ground floor. A decently sized business center was in the next room - with everything working. A medium sized gym was just down the hallway. They serve a free dinner during the work-week. I didn't have a chance to try that. They have a small self-service pantry where you buy frozen entrees/ice-cream/sundries/etc. The staff were pretty friendly and helpful. For the room itself, the small kitchen was in front with a eating bar. Towards the window was the sofa and flat-panel TV. The bedroom was through smallish french doors. One thing that was missing was an in-room safe. The WIFI was free and worked fine. The bathroom was done in commercial-grade beige granite, same with the kitchen counter. While not fancy nor trendy, the room was comfortable enough. The bed was comfortable. This location is within walking distance to a few strip malls with several decent restaurants.  The only negative is that the walls are a little thin and some of the neighboring guests were night-owls - staying up till the wee hours.MoreShow less</t>
+  </si>
+  <si>
+    <t>As the name says, the rooms are suite-type with a small kitchen area and a small living room. What impressed me the most was the comprehensive services available in a modest area. The hot breakfast was OK, served in the middle of the ground floor. A decently sized business center was in the next room - with everything working. A medium sized gym was just down the hallway. They serve a free dinner during the work-week. I didn't have a chance to try that. They have a small self-service pantry where you buy frozen entrees/ice-cream/sundries/etc. The staff were pretty friendly and helpful. For the room itself, the small kitchen was in front with a eating bar. Towards the window was the sofa and flat-panel TV. The bedroom was through smallish french doors. One thing that was missing was an in-room safe. The WIFI was free and worked fine. The bathroom was done in commercial-grade beige granite, same with the kitchen counter. While not fancy nor trendy, the room was comfortable enough. The bed was comfortable. This location is within walking distance to a few strip malls with several decent restaurants.  The only negative is that the walls are a little thin and some of the neighboring guests were night-owls - staying up till the wee hours.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r266245020-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -780,9 +1188,6 @@
     <t>While on a business trip to Houston, I booked my stay at this hotel and was here for 10 nights. The room was clean and well equipped. It was so comfortable staying here that it felt like home. They had a lot of variety for breakfast, which was complementary. They also have happy hours 3 days a week, which is complementary again. Food was amazing, and so was the service. The entire staff was courteous and prompt. Amenities are great. The campus is clean and well maintained. I'd definitely recommend this hotel to family and friends.</t>
   </si>
   <si>
-    <t>April 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r265382909-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -823,6 +1228,57 @@
   </si>
   <si>
     <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r261643806-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>261643806</t>
+  </si>
+  <si>
+    <t>03/25/2015</t>
+  </si>
+  <si>
+    <t>Best hotel in the Houston area!</t>
+  </si>
+  <si>
+    <t>I think working in the hospitality industry we can be the worst critic but honestly I Don't have a single negative comment about this hotel! The rooms are clean and property well maintained. The breakfast preparation you can tell the extra care they put into preparation. BUT more importantly the comfort and experience were top notch! Jon and his team ensured that we enjoyed our stay! They really made us feel like family! I noticed their interaction with all the guests and they all truly care and it showed! Thank you for making our family trip enjoyable and memorable! We definitely look forward to staying again! Anyone looking to stay in the Houston area don't even think twice just book this hotel and you will NOT be disappointed!MoreShow less</t>
+  </si>
+  <si>
+    <t>I think working in the hospitality industry we can be the worst critic but honestly I Don't have a single negative comment about this hotel! The rooms are clean and property well maintained. The breakfast preparation you can tell the extra care they put into preparation. BUT more importantly the comfort and experience were top notch! Jon and his team ensured that we enjoyed our stay! They really made us feel like family! I noticed their interaction with all the guests and they all truly care and it showed! Thank you for making our family trip enjoyable and memorable! We definitely look forward to staying again! Anyone looking to stay in the Houston area don't even think twice just book this hotel and you will NOT be disappointed!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r258337599-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>258337599</t>
+  </si>
+  <si>
+    <t>03/08/2015</t>
+  </si>
+  <si>
+    <t>Excellent Experience</t>
+  </si>
+  <si>
+    <t>I stayed at Stay Bridge suite Hotel during the last week of February ‘15, for a business trip. I had booked a Suit for 7 nights. All the staffs are good, co-operative &amp; ready to help you all the time. It was really a very nice experience.  
+Even though the payment was from my company, they had insisted to pay. Finally when we showed the respective e-mail, they had agreed to wait for the next day till they get confirmation. 
+The room is very well maintained, neat &amp; clean. The room has all necessary items like coffee maker, fridge, microwave oven, dish washer, hair dryer, Air conditioner, heater, etc. There is no electronic locker in the room. There is no balcony in the room. The bathroom is also very clean, spacious &amp; with all necessary amenities like bath tub.
+The complimentary buffet breakfast had lot of continental varieties, but almost same stuff every day. The food was OK &amp; limited options for vegetarians. They allow taking breakfast items to room &amp; providing a small breakfast carrier also. 
+They provide complimentary High Tea &amp; snacks on Tuesday to Thursday which also had good varieties, but limited options for vegetarians.
+The swimming pool is in ground floor &amp; I did not check it due to cold.
+The hotel provides free shuttle service to all the nearby places within 5 miles. They arranged shuttle service everyday to my office. While coming back from...I stayed at Stay Bridge suite Hotel during the last week of February ‘15, for a business trip. I had booked a Suit for 7 nights. All the staffs are good, co-operative &amp; ready to help you all the time. It was really a very nice experience.  Even though the payment was from my company, they had insisted to pay. Finally when we showed the respective e-mail, they had agreed to wait for the next day till they get confirmation. The room is very well maintained, neat &amp; clean. The room has all necessary items like coffee maker, fridge, microwave oven, dish washer, hair dryer, Air conditioner, heater, etc. There is no electronic locker in the room. There is no balcony in the room. The bathroom is also very clean, spacious &amp; with all necessary amenities like bath tub.The complimentary buffet breakfast had lot of continental varieties, but almost same stuff every day. The food was OK &amp; limited options for vegetarians. They allow taking breakfast items to room &amp; providing a small breakfast carrier also. They provide complimentary High Tea &amp; snacks on Tuesday to Thursday which also had good varieties, but limited options for vegetarians.The swimming pool is in ground floor &amp; I did not check it due to cold.The hotel provides free shuttle service to all the nearby places within 5 miles. They arranged shuttle service everyday to my office. While coming back from office, if we call 15 minutes before, they arrange vehicle. But one day, the shuttle service delayed by 1 hour from office in the evening &amp; we had to call many times to the hotel for the same.They do light cleaning &amp; arrangement of bed every day including Saturday &amp; Sunday. They do a complete washing of the room once in a week only.Even though the check-out time is 12 pm, they allowed us for late check-out till 1.30 pm. The check-out also extremely fast. They do not provide any complimentary pick-up &amp; drop to airport. Overall an excellent experience with Staybridge Suites and definitely will come back if I go to Houston again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>I stayed at Stay Bridge suite Hotel during the last week of February ‘15, for a business trip. I had booked a Suit for 7 nights. All the staffs are good, co-operative &amp; ready to help you all the time. It was really a very nice experience.  
+Even though the payment was from my company, they had insisted to pay. Finally when we showed the respective e-mail, they had agreed to wait for the next day till they get confirmation. 
+The room is very well maintained, neat &amp; clean. The room has all necessary items like coffee maker, fridge, microwave oven, dish washer, hair dryer, Air conditioner, heater, etc. There is no electronic locker in the room. There is no balcony in the room. The bathroom is also very clean, spacious &amp; with all necessary amenities like bath tub.
+The complimentary buffet breakfast had lot of continental varieties, but almost same stuff every day. The food was OK &amp; limited options for vegetarians. They allow taking breakfast items to room &amp; providing a small breakfast carrier also. 
+They provide complimentary High Tea &amp; snacks on Tuesday to Thursday which also had good varieties, but limited options for vegetarians.
+The swimming pool is in ground floor &amp; I did not check it due to cold.
+The hotel provides free shuttle service to all the nearby places within 5 miles. They arranged shuttle service everyday to my office. While coming back from...I stayed at Stay Bridge suite Hotel during the last week of February ‘15, for a business trip. I had booked a Suit for 7 nights. All the staffs are good, co-operative &amp; ready to help you all the time. It was really a very nice experience.  Even though the payment was from my company, they had insisted to pay. Finally when we showed the respective e-mail, they had agreed to wait for the next day till they get confirmation. The room is very well maintained, neat &amp; clean. The room has all necessary items like coffee maker, fridge, microwave oven, dish washer, hair dryer, Air conditioner, heater, etc. There is no electronic locker in the room. There is no balcony in the room. The bathroom is also very clean, spacious &amp; with all necessary amenities like bath tub.The complimentary buffet breakfast had lot of continental varieties, but almost same stuff every day. The food was OK &amp; limited options for vegetarians. They allow taking breakfast items to room &amp; providing a small breakfast carrier also. They provide complimentary High Tea &amp; snacks on Tuesday to Thursday which also had good varieties, but limited options for vegetarians.The swimming pool is in ground floor &amp; I did not check it due to cold.The hotel provides free shuttle service to all the nearby places within 5 miles. They arranged shuttle service everyday to my office. While coming back from office, if we call 15 minutes before, they arrange vehicle. But one day, the shuttle service delayed by 1 hour from office in the evening &amp; we had to call many times to the hotel for the same.They do light cleaning &amp; arrangement of bed every day including Saturday &amp; Sunday. They do a complete washing of the room once in a week only.Even though the check-out time is 12 pm, they allowed us for late check-out till 1.30 pm. The check-out also extremely fast. They do not provide any complimentary pick-up &amp; drop to airport. Overall an excellent experience with Staybridge Suites and definitely will come back if I go to Houston again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r252319491-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
@@ -892,6 +1348,75 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r241281532-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>241281532</t>
+  </si>
+  <si>
+    <t>11/24/2014</t>
+  </si>
+  <si>
+    <t>Brilliant hotel in the enrgy corridor</t>
+  </si>
+  <si>
+    <t>We stayed here for two weeks in October 14 with my young family. The best thing about this hotel is the staff, the customer service is brilliant! From the moment we arrived Jon and his staff looked after us superbly well. The hotel is clean, the rooms are large, modern and comfortable. The hotel facilities are well maintained, we used the pool and gym on most days, the breakfast is very nice. The hotel staff go out of there way at every opportunity to help you I can't speak more highly of them, my kids absolutely loved staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>jonlau828, General Manager at Staybridge Suites Houston West / Energy Corridor, responded to this reviewResponded December 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here for two weeks in October 14 with my young family. The best thing about this hotel is the staff, the customer service is brilliant! From the moment we arrived Jon and his staff looked after us superbly well. The hotel is clean, the rooms are large, modern and comfortable. The hotel facilities are well maintained, we used the pool and gym on most days, the breakfast is very nice. The hotel staff go out of there way at every opportunity to help you I can't speak more highly of them, my kids absolutely loved staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r237201828-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>237201828</t>
+  </si>
+  <si>
+    <t>10/30/2014</t>
+  </si>
+  <si>
+    <t>Pros &amp; Cons</t>
+  </si>
+  <si>
+    <t>I travelled to Houston for business quite often recently and always stay here (this is my 4th stay) as it is closed to my office. This time I stayed 3 weeks on the ground level (have tried the 2nd &amp; 3rd level previously but still prefer the ground level for ease of access to the laundry room, gym, carpark, lounge, etc).
+Pros:
+-they provide free evening light meals every tue-thurs, 530-730pm. the menu changes everyday and there is even free alcohols (beer &amp; wine).
+-Jon &amp; his team does a very good job in providing great customer service! you feel very welcome &amp; at home and everybody is very friendly &amp; helpful. I had a lot of parcels sent here and they did an excellent job of keeping them for me until I come for them.
+-room is big &amp; spacious, with a working area, living room area, bedroom area and equipped with full kitchen facilities (fridge, microwave, utensils, pots &amp; pans, stove, etc). housekeeping does a good job of keeping everything neat &amp; clean.
+-free bicycles rental, free shuttle service to anywhere nearby (within a certain miles), free wifi, free laundry (self service)
+-hotel is close to the I-10 expressway, which makes driving anywhere very convenient
+-plenty of restaurants/cafes within walking distance, a park for running/cycling and target is just down the road minutes drive away.
+Cons:
+-no free bottled water. they do have this "welcome goodie bag" (which...I travelled to Houston for business quite often recently and always stay here (this is my 4th stay) as it is closed to my office. This time I stayed 3 weeks on the ground level (have tried the 2nd &amp; 3rd level previously but still prefer the ground level for ease of access to the laundry room, gym, carpark, lounge, etc).Pros:-they provide free evening light meals every tue-thurs, 530-730pm. the menu changes everyday and there is even free alcohols (beer &amp; wine).-Jon &amp; his team does a very good job in providing great customer service! you feel very welcome &amp; at home and everybody is very friendly &amp; helpful. I had a lot of parcels sent here and they did an excellent job of keeping them for me until I come for them.-room is big &amp; spacious, with a working area, living room area, bedroom area and equipped with full kitchen facilities (fridge, microwave, utensils, pots &amp; pans, stove, etc). housekeeping does a good job of keeping everything neat &amp; clean.-free bicycles rental, free shuttle service to anywhere nearby (within a certain miles), free wifi, free laundry (self service)-hotel is close to the I-10 expressway, which makes driving anywhere very convenient-plenty of restaurants/cafes within walking distance, a park for running/cycling and target is just down the road minutes drive away.Cons:-no free bottled water. they do have this "welcome goodie bag" (which consist of bottled water &amp; a snack) for the IHG elite members (you have to ask for it during check-in). if you choose not to get the goodie bag, you get 300 IHG points in return. but they don't actually tell you all this unless you asked.  -far from all the places of interest in Houston (e.g. NASA, Kemah, downtown, museum district, houston premium outlet, etc). -front carpark is usually packed at night and you have to park at the side or at the backMoreShow less</t>
+  </si>
+  <si>
+    <t>jonlau828, General Manager at Staybridge Suites Houston West / Energy Corridor, responded to this reviewResponded November 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2014</t>
+  </si>
+  <si>
+    <t>I travelled to Houston for business quite often recently and always stay here (this is my 4th stay) as it is closed to my office. This time I stayed 3 weeks on the ground level (have tried the 2nd &amp; 3rd level previously but still prefer the ground level for ease of access to the laundry room, gym, carpark, lounge, etc).
+Pros:
+-they provide free evening light meals every tue-thurs, 530-730pm. the menu changes everyday and there is even free alcohols (beer &amp; wine).
+-Jon &amp; his team does a very good job in providing great customer service! you feel very welcome &amp; at home and everybody is very friendly &amp; helpful. I had a lot of parcels sent here and they did an excellent job of keeping them for me until I come for them.
+-room is big &amp; spacious, with a working area, living room area, bedroom area and equipped with full kitchen facilities (fridge, microwave, utensils, pots &amp; pans, stove, etc). housekeeping does a good job of keeping everything neat &amp; clean.
+-free bicycles rental, free shuttle service to anywhere nearby (within a certain miles), free wifi, free laundry (self service)
+-hotel is close to the I-10 expressway, which makes driving anywhere very convenient
+-plenty of restaurants/cafes within walking distance, a park for running/cycling and target is just down the road minutes drive away.
+Cons:
+-no free bottled water. they do have this "welcome goodie bag" (which...I travelled to Houston for business quite often recently and always stay here (this is my 4th stay) as it is closed to my office. This time I stayed 3 weeks on the ground level (have tried the 2nd &amp; 3rd level previously but still prefer the ground level for ease of access to the laundry room, gym, carpark, lounge, etc).Pros:-they provide free evening light meals every tue-thurs, 530-730pm. the menu changes everyday and there is even free alcohols (beer &amp; wine).-Jon &amp; his team does a very good job in providing great customer service! you feel very welcome &amp; at home and everybody is very friendly &amp; helpful. I had a lot of parcels sent here and they did an excellent job of keeping them for me until I come for them.-room is big &amp; spacious, with a working area, living room area, bedroom area and equipped with full kitchen facilities (fridge, microwave, utensils, pots &amp; pans, stove, etc). housekeeping does a good job of keeping everything neat &amp; clean.-free bicycles rental, free shuttle service to anywhere nearby (within a certain miles), free wifi, free laundry (self service)-hotel is close to the I-10 expressway, which makes driving anywhere very convenient-plenty of restaurants/cafes within walking distance, a park for running/cycling and target is just down the road minutes drive away.Cons:-no free bottled water. they do have this "welcome goodie bag" (which consist of bottled water &amp; a snack) for the IHG elite members (you have to ask for it during check-in). if you choose not to get the goodie bag, you get 300 IHG points in return. but they don't actually tell you all this unless you asked.  -far from all the places of interest in Houston (e.g. NASA, Kemah, downtown, museum district, houston premium outlet, etc). -front carpark is usually packed at night and you have to park at the side or at the backMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r230599512-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -907,9 +1432,6 @@
     <t>I travel to Houston a good bit for work and I love staying at the Staybridge Suites Energy Cooridor.  Jon and his staff always welcome me so warmly after my long drive.  The room is always perfect and comfortable.  I can't recommend this hotel enough.</t>
   </si>
   <si>
-    <t>August 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r220850988-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -949,6 +1471,47 @@
     <t>I was in Houston for a 3 week business trip. I have had favorable experiences at other Staybridge facilities, and this one did not disappoint. John Lau and all of his staff do an excellent job. The front desk personnel do an excellent job, in spite of some of the demands I placed upon them. Housekeeping did an exemplary job of keeping my mess straightened and clean. The Tuesday/Wednesday/Thursday evening receptions were great, and I enjoyed mingling with the other guests. Only one complaint - the beer was too foamy! If you are wanting to stay at a clean, comfortable, and welcoming place this is it. I will be returning back to the Houston area soon, and will definitely stay here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r210863124-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>210863124</t>
+  </si>
+  <si>
+    <t>06/17/2014</t>
+  </si>
+  <si>
+    <t>Staybridge stay.</t>
+  </si>
+  <si>
+    <t>I was in Houston for 4 days of classes at the BP learning center. BP was supposed to pay for the hotel. I checked in the Sunday night before the classes. There was a bit of a snafu in the billing and dates which was on BP's end. The result is that the room was on my credit card for me to put on my expenses.   
+I think the hotel may have been over booked as they put me in a handicapped suite. I have been in handicapped suites before and it is not really a problem for me. This room, however, smelled a bit like a hospital and once the air conditioner caught up it smelled a bit more like oven cleaner.
+With the mistake in the billing I spent only the one night in that room and I checked out in the morning. I was preparing to go down the road to a different hotel if it was going to go on my expenses.
+BP had a person to insure our accommodations were correct and she took care of everything. She got the hotel to reverse the charges on my credit card and put me in another room. She also relayed my dissatisfaction with the suite to the hotel staff. 
+When I got back to the hotel at the end of the first day the manager apologized personally and informed me that they ordered a deep cleaning of...I was in Houston for 4 days of classes at the BP learning center. BP was supposed to pay for the hotel. I checked in the Sunday night before the classes. There was a bit of a snafu in the billing and dates which was on BP's end. The result is that the room was on my credit card for me to put on my expenses.   I think the hotel may have been over booked as they put me in a handicapped suite. I have been in handicapped suites before and it is not really a problem for me. This room, however, smelled a bit like a hospital and once the air conditioner caught up it smelled a bit more like oven cleaner.With the mistake in the billing I spent only the one night in that room and I checked out in the morning. I was preparing to go down the road to a different hotel if it was going to go on my expenses.BP had a person to insure our accommodations were correct and she took care of everything. She got the hotel to reverse the charges on my credit card and put me in another room. She also relayed my dissatisfaction with the suite to the hotel staff. When I got back to the hotel at the end of the first day the manager apologized personally and informed me that they ordered a deep cleaning of the room they had me in. They put me in a different room. I stayed in that room for the duration of my classes.Occasionally some of the other guests were a little noisy but would quiet down at normal hours. The mattress on the bed was rather firm and by the end of the week some of my other classmates were also noticing that. The elevator at the back end of the hotel seemed to be suffering from less then professional repair service. There were several screws missing from the control panel. The brakes were a bit off when it came to stop on the first level and the brakes were squeaky.The breakfast was better than most hotels I've stayed at. The staff was excellent. The hotel was off the freeway a good distance and in a very nice part of town. They also provided a shuttle service to get us to and from our classes and tried to accommodate us for some of our group dining experiences. They also displayed the TripAdvisor logo with pride so I am sure they will read my review and look into fixing whatever needs to be fixed.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was in Houston for 4 days of classes at the BP learning center. BP was supposed to pay for the hotel. I checked in the Sunday night before the classes. There was a bit of a snafu in the billing and dates which was on BP's end. The result is that the room was on my credit card for me to put on my expenses.   
+I think the hotel may have been over booked as they put me in a handicapped suite. I have been in handicapped suites before and it is not really a problem for me. This room, however, smelled a bit like a hospital and once the air conditioner caught up it smelled a bit more like oven cleaner.
+With the mistake in the billing I spent only the one night in that room and I checked out in the morning. I was preparing to go down the road to a different hotel if it was going to go on my expenses.
+BP had a person to insure our accommodations were correct and she took care of everything. She got the hotel to reverse the charges on my credit card and put me in another room. She also relayed my dissatisfaction with the suite to the hotel staff. 
+When I got back to the hotel at the end of the first day the manager apologized personally and informed me that they ordered a deep cleaning of...I was in Houston for 4 days of classes at the BP learning center. BP was supposed to pay for the hotel. I checked in the Sunday night before the classes. There was a bit of a snafu in the billing and dates which was on BP's end. The result is that the room was on my credit card for me to put on my expenses.   I think the hotel may have been over booked as they put me in a handicapped suite. I have been in handicapped suites before and it is not really a problem for me. This room, however, smelled a bit like a hospital and once the air conditioner caught up it smelled a bit more like oven cleaner.With the mistake in the billing I spent only the one night in that room and I checked out in the morning. I was preparing to go down the road to a different hotel if it was going to go on my expenses.BP had a person to insure our accommodations were correct and she took care of everything. She got the hotel to reverse the charges on my credit card and put me in another room. She also relayed my dissatisfaction with the suite to the hotel staff. When I got back to the hotel at the end of the first day the manager apologized personally and informed me that they ordered a deep cleaning of the room they had me in. They put me in a different room. I stayed in that room for the duration of my classes.Occasionally some of the other guests were a little noisy but would quiet down at normal hours. The mattress on the bed was rather firm and by the end of the week some of my other classmates were also noticing that. The elevator at the back end of the hotel seemed to be suffering from less then professional repair service. There were several screws missing from the control panel. The brakes were a bit off when it came to stop on the first level and the brakes were squeaky.The breakfast was better than most hotels I've stayed at. The staff was excellent. The hotel was off the freeway a good distance and in a very nice part of town. They also provided a shuttle service to get us to and from our classes and tried to accommodate us for some of our group dining experiences. They also displayed the TripAdvisor logo with pride so I am sure they will read my review and look into fixing whatever needs to be fixed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r205646589-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>205646589</t>
+  </si>
+  <si>
+    <t>05/15/2014</t>
+  </si>
+  <si>
+    <t>Does the job</t>
+  </si>
+  <si>
+    <t>Stay here pre and post OTC.. Facilities are good.BBQ In the Garden is an asset although they could do with selling BBQ packs.Staff friendly and helpful.Some rooms are over the Hotel a/c unit (424) so cannot open the window for fresh air.Local restaurants are reasonable but food is average.I guess weekends could be a a struggle if you don't have a car, the hotel should consider having a extension to the popular "Happy Hour" over the W/E for people staying over the w/e ie Happy w/e BBQ!The kids staying can dominate the Business computers and i think this could be a problem for some business people.Otherwise great friendly stay.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r205368750-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -1009,6 +1572,45 @@
     <t>Check in was efficient, friendly and informative. Room was clean and spacious. Breakfast was good. All the staff was friendly and helpful.  They even accept pets (for a fee). Nice property. I'll definitely stay there again.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r188776291-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>188776291</t>
+  </si>
+  <si>
+    <t>12/28/2013</t>
+  </si>
+  <si>
+    <t>Truly a home that has a warm heart</t>
+  </si>
+  <si>
+    <t>If you intend to stay for a long time and have excellent support from the management, this is the place you should be. It has got well appointed rooms with all facilities expected of a service apartment. The people who manage this place are amazinig. They go out of the way to make you feel at home. They have a complimentary drinks and light dinner session every Tue-Thurs and that is really fantastic. They even have a decent breakfast spread that keeps you going for a long time. The location is right in the heart of the Energy district and walkiing distance from several eat-outs, saloon, super-market etc.I travel every three weeks to various parts of the world and this place has impressed me a lot.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>If you intend to stay for a long time and have excellent support from the management, this is the place you should be. It has got well appointed rooms with all facilities expected of a service apartment. The people who manage this place are amazinig. They go out of the way to make you feel at home. They have a complimentary drinks and light dinner session every Tue-Thurs and that is really fantastic. They even have a decent breakfast spread that keeps you going for a long time. The location is right in the heart of the Energy district and walkiing distance from several eat-outs, saloon, super-market etc.I travel every three weeks to various parts of the world and this place has impressed me a lot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r188647194-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>188647194</t>
+  </si>
+  <si>
+    <t>12/27/2013</t>
+  </si>
+  <si>
+    <t>Home away from home!</t>
+  </si>
+  <si>
+    <t>I happened to stay here as part of my official tour for almost 40 days during May - June 2013. The place was too good. Well kept rooms and property. Refrigerator and cooking utensils in the room were so handy and useful. The best thing about Staybridge is the evening socials, three days a week. With wine and beer and some of the best home made cookies and meat, it was perfect for relaxing. Their breakfasts are very rich with different tasty muffins and pastries in addition to the regular meals. The hotel has a room for laundry. Dryers are also provided. All these together this place is rocking.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r188249587-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -1081,6 +1683,66 @@
     <t>The hotel was clean, but not as nice as the newer staybridges. The service was great, but the hotel did not have movies or sofa sleepers. I would stay at this hotel again, but not with the family. The hotel was clean, but not as nice as the newer staybridges. The service was great, but the hotel did not have movies or sofa sleepers. I would stay at this hotel again, but not with the family.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r166614632-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>166614632</t>
+  </si>
+  <si>
+    <t>07/07/2013</t>
+  </si>
+  <si>
+    <t>Excellent Value and fully-equipped</t>
+  </si>
+  <si>
+    <t>I stayed here for seven weeks during a business trip.  
+The apartments are quiet, which gives a pleasant ambience.  The pool, although in full sun, is a good size for small families.  There are at least 10 restaurants within walking distance of varying qualities ... better being the Mexican across the road and the hamburger sports bar in the Quality Inn across the street.
+The bed is very good, and your room is serviced daily and new sheets about every five days.  The kitchenette is well stocked and has dish washer, full-sized fridge, microwave and stove.  Bathroom is a good size.  Two TVs and plenty of couches and desks.
+The gym is very good, plenty for the aerobic gymmer, and also machines for weghts.  The Apartment is 500m from a great running track along the river, which is a great way to start the day.
+Breakfast is basic but is a very good selection and enough variation.  In addition, this place offers free "snacks" at dinner time three days a week, which quite often can substitute for dinner, as they include things like chicken legs, nachos, pizzas, and hamburgers. This is a great idea.
+The staff here are really pleasant as well, and always willing to help.
+Most of the rooms are filled with a good mix of families and business people, which gives the place a lively feel when compared to some speciality business hotels.  Wifi is good, but...I stayed here for seven weeks during a business trip.  The apartments are quiet, which gives a pleasant ambience.  The pool, although in full sun, is a good size for small families.  There are at least 10 restaurants within walking distance of varying qualities ... better being the Mexican across the road and the hamburger sports bar in the Quality Inn across the street.The bed is very good, and your room is serviced daily and new sheets about every five days.  The kitchenette is well stocked and has dish washer, full-sized fridge, microwave and stove.  Bathroom is a good size.  Two TVs and plenty of couches and desks.The gym is very good, plenty for the aerobic gymmer, and also machines for weghts.  The Apartment is 500m from a great running track along the river, which is a great way to start the day.Breakfast is basic but is a very good selection and enough variation.  In addition, this place offers free "snacks" at dinner time three days a week, which quite often can substitute for dinner, as they include things like chicken legs, nachos, pizzas, and hamburgers. This is a great idea.The staff here are really pleasant as well, and always willing to help.Most of the rooms are filled with a good mix of families and business people, which gives the place a lively feel when compared to some speciality business hotels.  Wifi is good, but a little slow at times.  The laundry is free and well equipped ... I only had to wait for a machine once in seven weeks.I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>I stayed here for seven weeks during a business trip.  
+The apartments are quiet, which gives a pleasant ambience.  The pool, although in full sun, is a good size for small families.  There are at least 10 restaurants within walking distance of varying qualities ... better being the Mexican across the road and the hamburger sports bar in the Quality Inn across the street.
+The bed is very good, and your room is serviced daily and new sheets about every five days.  The kitchenette is well stocked and has dish washer, full-sized fridge, microwave and stove.  Bathroom is a good size.  Two TVs and plenty of couches and desks.
+The gym is very good, plenty for the aerobic gymmer, and also machines for weghts.  The Apartment is 500m from a great running track along the river, which is a great way to start the day.
+Breakfast is basic but is a very good selection and enough variation.  In addition, this place offers free "snacks" at dinner time three days a week, which quite often can substitute for dinner, as they include things like chicken legs, nachos, pizzas, and hamburgers. This is a great idea.
+The staff here are really pleasant as well, and always willing to help.
+Most of the rooms are filled with a good mix of families and business people, which gives the place a lively feel when compared to some speciality business hotels.  Wifi is good, but...I stayed here for seven weeks during a business trip.  The apartments are quiet, which gives a pleasant ambience.  The pool, although in full sun, is a good size for small families.  There are at least 10 restaurants within walking distance of varying qualities ... better being the Mexican across the road and the hamburger sports bar in the Quality Inn across the street.The bed is very good, and your room is serviced daily and new sheets about every five days.  The kitchenette is well stocked and has dish washer, full-sized fridge, microwave and stove.  Bathroom is a good size.  Two TVs and plenty of couches and desks.The gym is very good, plenty for the aerobic gymmer, and also machines for weghts.  The Apartment is 500m from a great running track along the river, which is a great way to start the day.Breakfast is basic but is a very good selection and enough variation.  In addition, this place offers free "snacks" at dinner time three days a week, which quite often can substitute for dinner, as they include things like chicken legs, nachos, pizzas, and hamburgers. This is a great idea.The staff here are really pleasant as well, and always willing to help.Most of the rooms are filled with a good mix of families and business people, which gives the place a lively feel when compared to some speciality business hotels.  Wifi is good, but a little slow at times.  The laundry is free and well equipped ... I only had to wait for a machine once in seven weeks.I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r162218617-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>162218617</t>
+  </si>
+  <si>
+    <t>05/28/2013</t>
+  </si>
+  <si>
+    <t>Everything you need!!</t>
+  </si>
+  <si>
+    <t>I have stayed here a few times when I'm in Houston on business. Nice large clean rooms. They have everything you need. It's nice to have the larger rooms, they give you enough space so you don't feel so closed in. Great place to get some work done too.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>jonlau828, General Manager at Staybridge Suites Houston West / Energy Corridor, responded to this reviewResponded June 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2013</t>
+  </si>
+  <si>
+    <t>I have stayed here a few times when I'm in Houston on business. Nice large clean rooms. They have everything you need. It's nice to have the larger rooms, they give you enough space so you don't feel so closed in. Great place to get some work done too.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r160181727-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -1159,6 +1821,54 @@
     <t>I stay here when in Houston for work a couple times a year. It is convenient to dining, shopping and groceties. i have found every staff member I  come across is so nice and makes sure i am enjoying my stay. The room is so comfortable and clean, I definitely recommend this hotel!!! The breakfast buffet and light dinner buffet Tues-Thurs with complimentary wine and beer is nice after a long day of business meetings and you just don't want to go out for dinner. I can't say enough good things about this hotel. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r148047574-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>148047574</t>
+  </si>
+  <si>
+    <t>12/25/2012</t>
+  </si>
+  <si>
+    <t>Will definitely stay here for all future trips to Houston!! Clean &amp; friendly staff!</t>
+  </si>
+  <si>
+    <t>I will stay here for all of our future trips to Houston. We come several times a year to see my husband's family and to go to the Medical Center at least 2 times a year. We both agree that this is by far the best hotel we have stayed in when visiting. When we checked in it was after 11pm and the clerk that was on duty checked us in quickly and with a pleasant attitude. It was nice to wake up that next morning and enjoy the hot coffee and breakfast they provided. We have been here now three days and every staff member we come across is so nice and makes sure we are enjoying our stay. The room is so comfortable and clean, I definitely recommend this hotel!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>jonlau828, General Manager at Staybridge Suites Houston West / Energy Corridor, responded to this reviewResponded December 27, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 27, 2012</t>
+  </si>
+  <si>
+    <t>I will stay here for all of our future trips to Houston. We come several times a year to see my husband's family and to go to the Medical Center at least 2 times a year. We both agree that this is by far the best hotel we have stayed in when visiting. When we checked in it was after 11pm and the clerk that was on duty checked us in quickly and with a pleasant attitude. It was nice to wake up that next morning and enjoy the hot coffee and breakfast they provided. We have been here now three days and every staff member we come across is so nice and makes sure we are enjoying our stay. The room is so comfortable and clean, I definitely recommend this hotel!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r147383929-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147383929</t>
+  </si>
+  <si>
+    <t>12/13/2012</t>
+  </si>
+  <si>
+    <t>Part of the Family</t>
+  </si>
+  <si>
+    <t>I have stayed in many Hotels around the world during the course of my work and leisure, most have been good, but the Staybridge Suites in Houston has rapidly become my favorite Hotel. There is a family atmosphere to the place, nothing is ever too much trouble, staff are friendly and obliging and for 3 days a week they have a social evening where guests are encouraged to meet and mingle. A new renovation to the dining area has vastly enhanced the hotels and 2 BBQ grills are available for all to use.MoreShow less</t>
+  </si>
+  <si>
+    <t>jonlau828, General Manager at Staybridge Suites Houston West / Energy Corridor, responded to this reviewResponded December 19, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 19, 2012</t>
+  </si>
+  <si>
+    <t>I have stayed in many Hotels around the world during the course of my work and leisure, most have been good, but the Staybridge Suites in Houston has rapidly become my favorite Hotel. There is a family atmosphere to the place, nothing is ever too much trouble, staff are friendly and obliging and for 3 days a week they have a social evening where guests are encouraged to meet and mingle. A new renovation to the dining area has vastly enhanced the hotels and 2 BBQ grills are available for all to use.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r146509896-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -1222,6 +1932,39 @@
     <t>I like that they had two bedroom suites available.  Very convenient to bike trails and keeping our bikes in the room was a plus.  Had onsite laundry and good breakfast!  However the cabinets, counter-tops, bathroom and tables were pretty low quality.  Pretty thin walls also.  I would stay here again, but would try and find another hotel first that meet our space needs.  Beds were nice and firm.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r145283982-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>145283982</t>
+  </si>
+  <si>
+    <t>11/12/2012</t>
+  </si>
+  <si>
+    <t>Adequate, nothing more</t>
+  </si>
+  <si>
+    <t>Very adequate business motel. Limited-service (when staying less than a week) extended-stay suites. Clean, sterile. Breakfast okay, nothing more, perhaps will be better when they finish the breakfast area remodel.  Very attentive staff and management. No Comedy Central on the TV ... What gives?</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r144577789-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>144577789</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>Good place to stay</t>
+  </si>
+  <si>
+    <t>I stayed there for 8 weeks while working a project in Houston. Friendly staff, clean rooms. good food and convenient location for the project I was on. I was only only there 3 nights per week, but they have fabulous rates for people that are there for a month or more.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r139528118-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -1237,9 +1980,6 @@
     <t>Excellent 1-bedroom suite which was perfect for my 6-week stay in Houston. Good varied breakfast and a light meal 3 evenings per week. The hotel is clean and well maintained and the staff are friendly. Very satisfied.</t>
   </si>
   <si>
-    <t>September 2012</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r129568481-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -1276,6 +2016,42 @@
     <t>July 2011</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r114991282-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>114991282</t>
+  </si>
+  <si>
+    <t>07/03/2011</t>
+  </si>
+  <si>
+    <t>Excellent Stay At Staybridge Suites</t>
+  </si>
+  <si>
+    <t>I recently stayed with friends in a two-bedroom unit at this Staybridge Suites for two weeks.  One of my friends was receiving medical treatment in Houston, so this was not a business trip, nor was it a vacation.  This hotel was perfect for us.  It is meticulously maintained.  The two-bedroom unit was quite nice.  In addition to the bedrooms, we had two bathrooms, a small kitchen and a living area.   There was a breakfast buffet every morning and a limited dinner buffet (including wine and beer) on Tuesday, Wednesday and Thursday evenings.  The staff was friendly and accommodating.    The hotel was in a nice area.  We felt safe and it was a five minute drive to the I-10 Freeway.  There were restaurants and stores in the area, as well.  We were very pleased.   I would highly recommend this to hotel to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>I recently stayed with friends in a two-bedroom unit at this Staybridge Suites for two weeks.  One of my friends was receiving medical treatment in Houston, so this was not a business trip, nor was it a vacation.  This hotel was perfect for us.  It is meticulously maintained.  The two-bedroom unit was quite nice.  In addition to the bedrooms, we had two bathrooms, a small kitchen and a living area.   There was a breakfast buffet every morning and a limited dinner buffet (including wine and beer) on Tuesday, Wednesday and Thursday evenings.  The staff was friendly and accommodating.    The hotel was in a nice area.  We felt safe and it was a five minute drive to the I-10 Freeway.  There were restaurants and stores in the area, as well.  We were very pleased.   I would highly recommend this to hotel to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r99128449-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>99128449</t>
+  </si>
+  <si>
+    <t>03/06/2011</t>
+  </si>
+  <si>
+    <t>Great staff, great rooms, close to food</t>
+  </si>
+  <si>
+    <t>This place has the best staff. The rooms are nice and well kept. The price is fair. There are places to eat within walking distance.A+ You can't go wrong here</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r57171826-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -1334,6 +2110,39 @@
   </si>
   <si>
     <t>August 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r30677592-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>30677592</t>
+  </si>
+  <si>
+    <t>05/24/2009</t>
+  </si>
+  <si>
+    <t>great hotel with every ammenity I needed and some I didn't know I needed</t>
+  </si>
+  <si>
+    <t>Great free breakfast, Great staff ,Good fitness center ,Free Laundry, ice maker in room, conveinent to highway system, runners path near hotel,  Stayed with 4 women and adequate room for us all to get ready.  Staff cares about comfort, Nice lounge area with huge flat screen TV if your roomates get on your nerves.  Highly recommend this hotel to anyone looking for a nice place at a great value</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r29056297-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>29056297</t>
+  </si>
+  <si>
+    <t>04/29/2009</t>
+  </si>
+  <si>
+    <t>Excellent amenities and wonderful service, great for business &amp; leisure</t>
+  </si>
+  <si>
+    <t>Free amenities include: (well-lit) parking, wireless internet, use of business center where you can print, breakfast buffet.  Although this establishment is located approx 18 miles from downtown the easy access to more than one highway makes the commute bearable.  This hotel was located in a nice area that has countless restaurants and stores of all times within a short distance.  The front desk staff were extremely accommodating and friendly as were the food service and housekeeping staff.  The room had a kitchen and equipped with all the mod cons (cooker, fridge, and dishwasher, and microwave), and even crockery.  Extremely pleased with my choice</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d596014-r6650692-Staybridge_Suites_Houston_West_Energy_Corridor-Houston_Texas.html</t>
@@ -1907,7 +2716,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1915,10 +2724,12 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="s"/>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
       <c r="Q2" t="s"/>
       <c r="R2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
@@ -1968,7 +2779,7 @@
         <v>59</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
         <v>60</v>
@@ -1985,10 +2796,14 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
@@ -2004,7 +2819,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -2013,32 +2828,32 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
         <v>5</v>
@@ -2049,7 +2864,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -2065,7 +2880,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -2074,25 +2889,25 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2103,14 +2918,10 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>73</v>
-      </c>
-      <c r="X5" t="s">
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
         <v>74</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -2150,17 +2961,21 @@
         <v>5</v>
       </c>
       <c r="N6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" t="s">
         <v>81</v>
-      </c>
-      <c r="O6" t="s">
-        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
@@ -2207,7 +3022,7 @@
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="O7" t="s">
         <v>53</v>
@@ -2224,7 +3039,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
@@ -2309,22 +3124,22 @@
         <v>95</v>
       </c>
       <c r="J9" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2335,10 +3150,14 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>100</v>
+      </c>
+      <c r="X9" t="s">
+        <v>101</v>
+      </c>
       <c r="Y9" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
@@ -2354,7 +3173,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2363,43 +3182,39 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K10" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="O10" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
@@ -2415,7 +3230,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2424,22 +3239,22 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J11" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K11" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O11" t="s">
         <v>53</v>
@@ -2447,20 +3262,16 @@
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>3</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12">
@@ -2476,7 +3287,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2485,43 +3296,43 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
         <v>114</v>
       </c>
-      <c r="K12" t="s">
-        <v>115</v>
-      </c>
-      <c r="L12" t="s">
-        <v>116</v>
-      </c>
-      <c r="M12" t="n">
-        <v>4</v>
-      </c>
-      <c r="N12" t="s">
-        <v>117</v>
-      </c>
       <c r="O12" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>118</v>
-      </c>
-      <c r="X12" t="s">
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
         <v>119</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13">
@@ -2537,46 +3348,46 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
         <v>121</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>122</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>123</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>124</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
         <v>125</v>
       </c>
-      <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="s">
-        <v>126</v>
-      </c>
       <c r="O13" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2584,7 +3395,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
@@ -2600,31 +3411,31 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
         <v>128</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>129</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>130</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>131</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
         <v>132</v>
-      </c>
-      <c r="M14" t="n">
-        <v>4</v>
-      </c>
-      <c r="N14" t="s">
-        <v>133</v>
       </c>
       <c r="O14" t="s">
         <v>53</v>
@@ -2638,14 +3449,10 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>134</v>
-      </c>
-      <c r="X14" t="s">
-        <v>135</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15">
@@ -2661,7 +3468,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2670,25 +3477,25 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J15" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="K15" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="L15" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="O15" t="s">
-        <v>143</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2702,7 +3509,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16">
@@ -2718,7 +3525,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2727,30 +3534,28 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="J16" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="K16" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="L16" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q16" t="s"/>
       <c r="R16" t="n">
         <v>5</v>
       </c>
@@ -2765,7 +3570,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17">
@@ -2781,7 +3586,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2790,22 +3595,26 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="J17" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="K17" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="L17" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
-      <c r="N17" t="s"/>
-      <c r="O17" t="s"/>
+      <c r="N17" t="s">
+        <v>93</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
@@ -2818,7 +3627,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18">
@@ -2834,7 +3643,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2843,43 +3652,39 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="J18" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="K18" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="L18" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="O18" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19">
@@ -2895,7 +3700,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2904,35 +3709,35 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="J19" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="K19" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="L19" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O19" t="s">
         <v>53</v>
       </c>
       <c r="P19" t="s"/>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2940,7 +3745,7 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20">
@@ -2956,7 +3761,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2965,47 +3770,43 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="J20" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="K20" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="L20" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>111</v>
+        <v>165</v>
       </c>
       <c r="O20" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
-      <c r="S20" t="n">
-        <v>4</v>
-      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>3</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="X20" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="Y20" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21">
@@ -3021,7 +3822,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3030,39 +3831,45 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="J21" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="K21" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="L21" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
-      </c>
-      <c r="N21" t="s"/>
-      <c r="O21" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>174</v>
+      </c>
+      <c r="O21" t="s">
+        <v>81</v>
+      </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
-        <v>181</v>
-      </c>
-      <c r="X21" t="s">
-        <v>182</v>
-      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22">
@@ -3078,7 +3885,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3087,45 +3894,35 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="J22" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="K22" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="L22" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
-      </c>
-      <c r="N22" t="s">
-        <v>189</v>
-      </c>
-      <c r="O22" t="s">
-        <v>66</v>
-      </c>
-      <c r="P22" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
-      <c r="S22" t="n">
-        <v>4</v>
-      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>4</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23">
@@ -3141,7 +3938,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3150,22 +3947,22 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J23" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K23" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="L23" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="O23" t="s">
         <v>53</v>
@@ -3173,7 +3970,7 @@
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
       <c r="R23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
@@ -3183,10 +3980,14 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>187</v>
+      </c>
+      <c r="X23" t="s">
+        <v>188</v>
+      </c>
       <c r="Y23" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24">
@@ -3202,7 +4003,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3211,19 +4012,19 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="J24" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="K24" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="L24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
         <v>195</v>
@@ -3240,10 +4041,14 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>196</v>
+      </c>
+      <c r="X24" t="s">
+        <v>197</v>
+      </c>
       <c r="Y24" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25">
@@ -3259,54 +4064,48 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>199</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>200</v>
+      </c>
+      <c r="J25" t="s">
         <v>201</v>
       </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="K25" t="s">
         <v>202</v>
       </c>
-      <c r="J25" t="s">
-        <v>198</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>203</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
         <v>204</v>
       </c>
-      <c r="M25" t="n">
-        <v>5</v>
-      </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>205</v>
-      </c>
-      <c r="O25" t="s">
-        <v>53</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26">
@@ -3343,7 +4142,7 @@
         <v>210</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
         <v>211</v>
@@ -3353,27 +4152,23 @@
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>212</v>
-      </c>
-      <c r="X26" t="s">
-        <v>213</v>
-      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27">
@@ -3389,44 +4184,44 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
+        <v>212</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>213</v>
+      </c>
+      <c r="J27" t="s">
+        <v>214</v>
+      </c>
+      <c r="K27" t="s">
         <v>215</v>
       </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="L27" t="s">
         <v>216</v>
       </c>
-      <c r="J27" t="s">
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
         <v>217</v>
       </c>
-      <c r="K27" t="s">
-        <v>218</v>
-      </c>
-      <c r="L27" t="s">
-        <v>219</v>
-      </c>
-      <c r="M27" t="n">
-        <v>4</v>
-      </c>
-      <c r="N27" t="s">
-        <v>220</v>
-      </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="P27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -3434,7 +4229,7 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28">
@@ -3450,34 +4245,34 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>219</v>
+      </c>
+      <c r="J28" t="s">
+        <v>220</v>
+      </c>
+      <c r="K28" t="s">
         <v>221</v>
       </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="L28" t="s">
         <v>222</v>
       </c>
-      <c r="J28" t="s">
-        <v>223</v>
-      </c>
-      <c r="K28" t="s">
-        <v>224</v>
-      </c>
-      <c r="L28" t="s">
-        <v>225</v>
-      </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="O28" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3491,7 +4286,7 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29">
@@ -3507,52 +4302,44 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
+        <v>224</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>225</v>
+      </c>
+      <c r="J29" t="s">
+        <v>226</v>
+      </c>
+      <c r="K29" t="s">
         <v>227</v>
       </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="L29" t="s">
         <v>228</v>
       </c>
-      <c r="J29" t="s">
-        <v>229</v>
-      </c>
-      <c r="K29" t="s">
-        <v>230</v>
-      </c>
-      <c r="L29" t="s">
-        <v>231</v>
-      </c>
       <c r="M29" t="n">
-        <v>5</v>
-      </c>
-      <c r="N29" t="s">
-        <v>232</v>
-      </c>
-      <c r="O29" t="s">
-        <v>53</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30">
@@ -3568,46 +4355,44 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
+        <v>230</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>231</v>
+      </c>
+      <c r="J30" t="s">
+        <v>232</v>
+      </c>
+      <c r="K30" t="s">
         <v>233</v>
       </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="L30" t="s">
         <v>234</v>
       </c>
-      <c r="J30" t="s">
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
         <v>235</v>
       </c>
-      <c r="K30" t="s">
-        <v>236</v>
-      </c>
-      <c r="L30" t="s">
-        <v>237</v>
-      </c>
-      <c r="M30" t="n">
-        <v>4</v>
-      </c>
-      <c r="N30" t="s">
-        <v>238</v>
-      </c>
       <c r="O30" t="s">
-        <v>53</v>
-      </c>
-      <c r="P30" t="n">
-        <v>4</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
       <c r="S30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -3615,7 +4400,7 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31">
@@ -3631,38 +4416,36 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
+        <v>237</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>238</v>
+      </c>
+      <c r="J31" t="s">
         <v>239</v>
       </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="K31" t="s">
         <v>240</v>
       </c>
-      <c r="J31" t="s">
+      <c r="L31" t="s">
         <v>241</v>
       </c>
-      <c r="K31" t="s">
-        <v>242</v>
-      </c>
-      <c r="L31" t="s">
-        <v>243</v>
-      </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="O31" t="s">
-        <v>105</v>
-      </c>
-      <c r="P31" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
       <c r="Q31" t="n">
         <v>5</v>
       </c>
@@ -3678,7 +4461,7 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32">
@@ -3694,52 +4477,48 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
+        <v>242</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>243</v>
+      </c>
+      <c r="J32" t="s">
+        <v>244</v>
+      </c>
+      <c r="K32" t="s">
         <v>245</v>
       </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="L32" t="s">
         <v>246</v>
       </c>
-      <c r="J32" t="s">
-        <v>247</v>
-      </c>
-      <c r="K32" t="s">
-        <v>248</v>
-      </c>
-      <c r="L32" t="s">
-        <v>249</v>
-      </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="P32" t="s"/>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>5</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33">
@@ -3755,52 +4534,52 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
+        <v>247</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>248</v>
+      </c>
+      <c r="J33" t="s">
+        <v>249</v>
+      </c>
+      <c r="K33" t="s">
+        <v>250</v>
+      </c>
+      <c r="L33" t="s">
         <v>251</v>
       </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
         <v>252</v>
       </c>
-      <c r="J33" t="s">
-        <v>253</v>
-      </c>
-      <c r="K33" t="s">
-        <v>254</v>
-      </c>
-      <c r="L33" t="s">
-        <v>255</v>
-      </c>
-      <c r="M33" t="n">
-        <v>4</v>
-      </c>
-      <c r="N33" t="s">
-        <v>250</v>
-      </c>
       <c r="O33" t="s">
-        <v>105</v>
-      </c>
-      <c r="P33" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
       <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
-        <v>256</v>
-      </c>
-      <c r="X33" t="s">
-        <v>257</v>
-      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34">
@@ -3816,7 +4595,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3825,39 +4604,47 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J34" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="K34" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="L34" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>264</v>
+        <v>159</v>
       </c>
       <c r="O34" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
-      <c r="S34" t="s"/>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
       <c r="T34" t="s"/>
-      <c r="U34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>259</v>
+      </c>
+      <c r="X34" t="s">
+        <v>260</v>
+      </c>
       <c r="Y34" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35">
@@ -3873,52 +4660,48 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
+        <v>262</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>263</v>
+      </c>
+      <c r="J35" t="s">
+        <v>264</v>
+      </c>
+      <c r="K35" t="s">
         <v>265</v>
       </c>
-      <c r="G35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="L35" t="s">
         <v>266</v>
       </c>
-      <c r="J35" t="s">
-        <v>267</v>
-      </c>
-      <c r="K35" t="s">
-        <v>268</v>
-      </c>
-      <c r="L35" t="s">
-        <v>269</v>
-      </c>
       <c r="M35" t="n">
-        <v>5</v>
-      </c>
-      <c r="N35" t="s">
-        <v>270</v>
-      </c>
-      <c r="O35" t="s">
-        <v>53</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
       <c r="P35" t="s"/>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>5</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>267</v>
+      </c>
+      <c r="X35" t="s">
+        <v>268</v>
+      </c>
       <c r="Y35" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36">
@@ -3934,46 +4717,46 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
+        <v>270</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>271</v>
+      </c>
+      <c r="J36" t="s">
         <v>272</v>
       </c>
-      <c r="G36" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="K36" t="s">
         <v>273</v>
       </c>
-      <c r="J36" t="s">
+      <c r="L36" t="s">
         <v>274</v>
       </c>
-      <c r="K36" t="s">
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
         <v>275</v>
       </c>
-      <c r="L36" t="s">
-        <v>276</v>
-      </c>
-      <c r="M36" t="n">
-        <v>4</v>
-      </c>
-      <c r="N36" t="s"/>
-      <c r="O36" t="s"/>
+      <c r="O36" t="s">
+        <v>81</v>
+      </c>
       <c r="P36" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>5</v>
-      </c>
-      <c r="R36" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
       <c r="S36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3981,7 +4764,7 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="37">
@@ -3997,47 +4780,41 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
+        <v>276</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>277</v>
+      </c>
+      <c r="J37" t="s">
         <v>278</v>
       </c>
-      <c r="G37" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="K37" t="s">
         <v>279</v>
       </c>
-      <c r="J37" t="s">
+      <c r="L37" t="s">
         <v>280</v>
       </c>
-      <c r="K37" t="s">
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
         <v>281</v>
       </c>
-      <c r="L37" t="s">
-        <v>282</v>
-      </c>
-      <c r="M37" t="n">
-        <v>5</v>
-      </c>
-      <c r="N37" t="s">
-        <v>283</v>
-      </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="P37" t="s"/>
-      <c r="Q37" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q37" t="s"/>
       <c r="R37" t="s"/>
-      <c r="S37" t="n">
-        <v>5</v>
-      </c>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>5</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
@@ -4060,45 +4837,41 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
+        <v>283</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
         <v>284</v>
       </c>
-      <c r="G38" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>285</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>286</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>287</v>
       </c>
-      <c r="L38" t="s">
-        <v>288</v>
-      </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
+      <c r="R38" t="s"/>
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>5</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
@@ -4121,44 +4894,44 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
+        <v>289</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
         <v>290</v>
       </c>
-      <c r="G39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" t="s">
-        <v>47</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>291</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>292</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>293</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
         <v>294</v>
-      </c>
-      <c r="M39" t="n">
-        <v>5</v>
-      </c>
-      <c r="N39" t="s">
-        <v>295</v>
       </c>
       <c r="O39" t="s">
         <v>53</v>
       </c>
       <c r="P39" t="s"/>
-      <c r="Q39" t="n">
-        <v>5</v>
-      </c>
-      <c r="R39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
       <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -4166,7 +4939,7 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="40">
@@ -4182,54 +4955,48 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
+        <v>295</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
         <v>296</v>
       </c>
-      <c r="G40" t="s">
-        <v>46</v>
-      </c>
-      <c r="H40" t="s">
-        <v>47</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>297</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>298</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>299</v>
       </c>
-      <c r="L40" t="s">
-        <v>300</v>
-      </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="O40" t="s">
         <v>53</v>
       </c>
       <c r="P40" t="s"/>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
       <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>5</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="41">
@@ -4245,46 +5012,42 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
+        <v>300</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>301</v>
+      </c>
+      <c r="J41" t="s">
+        <v>297</v>
+      </c>
+      <c r="K41" t="s">
+        <v>302</v>
+      </c>
+      <c r="L41" t="s">
         <v>303</v>
       </c>
-      <c r="G41" t="s">
-        <v>46</v>
-      </c>
-      <c r="H41" t="s">
-        <v>47</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
         <v>304</v>
-      </c>
-      <c r="J41" t="s">
-        <v>305</v>
-      </c>
-      <c r="K41" t="s">
-        <v>306</v>
-      </c>
-      <c r="L41" t="s">
-        <v>307</v>
-      </c>
-      <c r="M41" t="n">
-        <v>5</v>
-      </c>
-      <c r="N41" t="s">
-        <v>295</v>
       </c>
       <c r="O41" t="s">
         <v>53</v>
       </c>
-      <c r="P41" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>4</v>
-      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
       <c r="R41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
@@ -4293,14 +5056,10 @@
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s">
-        <v>308</v>
-      </c>
-      <c r="X41" t="s">
-        <v>309</v>
-      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42">
@@ -4316,7 +5075,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4325,49 +5084,39 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="J42" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="K42" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="L42" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
-      </c>
-      <c r="P42" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>5</v>
-      </c>
-      <c r="R42" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>5</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43">
@@ -4383,7 +5132,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4392,41 +5141,37 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="J43" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="K43" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="L43" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O43" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="P43" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>5</v>
-      </c>
-      <c r="R43" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
       <c r="S43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4434,7 +5179,7 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="44">
@@ -4450,54 +5195,56 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
+        <v>319</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>320</v>
+      </c>
+      <c r="J44" t="s">
+        <v>321</v>
+      </c>
+      <c r="K44" t="s">
+        <v>322</v>
+      </c>
+      <c r="L44" t="s">
         <v>323</v>
       </c>
-      <c r="G44" t="s">
-        <v>46</v>
-      </c>
-      <c r="H44" t="s">
-        <v>47</v>
-      </c>
-      <c r="I44" t="s">
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
         <v>324</v>
       </c>
-      <c r="J44" t="s">
-        <v>325</v>
-      </c>
-      <c r="K44" t="s">
-        <v>326</v>
-      </c>
-      <c r="L44" t="s">
-        <v>327</v>
-      </c>
-      <c r="M44" t="n">
-        <v>4</v>
-      </c>
-      <c r="N44" t="s">
-        <v>328</v>
-      </c>
       <c r="O44" t="s">
-        <v>105</v>
-      </c>
-      <c r="P44" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
       <c r="Q44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>325</v>
+      </c>
+      <c r="X44" t="s">
+        <v>326</v>
+      </c>
       <c r="Y44" t="s">
         <v>327</v>
       </c>
@@ -4515,47 +5262,41 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
+        <v>328</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
         <v>329</v>
       </c>
-      <c r="G45" t="s">
-        <v>46</v>
-      </c>
-      <c r="H45" t="s">
-        <v>47</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>330</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>331</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>332</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
         <v>333</v>
-      </c>
-      <c r="M45" t="n">
-        <v>4</v>
-      </c>
-      <c r="N45" t="s">
-        <v>334</v>
       </c>
       <c r="O45" t="s">
         <v>53</v>
       </c>
       <c r="P45" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>5</v>
-      </c>
-      <c r="R45" t="n">
-        <v>4</v>
-      </c>
-      <c r="S45" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
         <v>5</v>
@@ -4563,14 +5304,10 @@
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s">
-        <v>335</v>
-      </c>
-      <c r="X45" t="s">
-        <v>336</v>
-      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="46">
@@ -4586,62 +5323,48 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
+        <v>334</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>335</v>
+      </c>
+      <c r="J46" t="s">
+        <v>336</v>
+      </c>
+      <c r="K46" t="s">
+        <v>337</v>
+      </c>
+      <c r="L46" t="s">
         <v>338</v>
       </c>
-      <c r="G46" t="s">
-        <v>46</v>
-      </c>
-      <c r="H46" t="s">
-        <v>47</v>
-      </c>
-      <c r="I46" t="s">
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
         <v>339</v>
       </c>
-      <c r="J46" t="s">
-        <v>340</v>
-      </c>
-      <c r="K46" t="s">
-        <v>341</v>
-      </c>
-      <c r="L46" t="s">
-        <v>342</v>
-      </c>
-      <c r="M46" t="n">
-        <v>4</v>
-      </c>
-      <c r="N46" t="s">
-        <v>343</v>
-      </c>
       <c r="O46" t="s">
-        <v>105</v>
-      </c>
-      <c r="P46" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>5</v>
-      </c>
-      <c r="R46" t="n">
-        <v>5</v>
-      </c>
-      <c r="S46" t="n">
-        <v>5</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="n">
-        <v>5</v>
-      </c>
+      <c r="U46" t="s"/>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s">
-        <v>344</v>
-      </c>
-      <c r="X46" t="s">
-        <v>345</v>
-      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="47">
@@ -4657,7 +5380,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4666,37 +5389,33 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="J47" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="K47" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="L47" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="O47" t="s">
-        <v>143</v>
-      </c>
-      <c r="P47" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
       <c r="Q47" t="n">
         <v>4</v>
       </c>
-      <c r="R47" t="n">
-        <v>4</v>
-      </c>
+      <c r="R47" t="s"/>
       <c r="S47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
@@ -4705,14 +5424,10 @@
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s">
-        <v>353</v>
-      </c>
-      <c r="X47" t="s">
-        <v>354</v>
-      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="48">
@@ -4728,7 +5443,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4737,38 +5452,32 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="J48" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="K48" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="L48" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>361</v>
+        <v>304</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
-      </c>
-      <c r="P48" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>4</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
       <c r="R48" t="n">
-        <v>4</v>
-      </c>
-      <c r="S48" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
         <v>5</v>
@@ -4776,14 +5485,10 @@
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s">
-        <v>362</v>
-      </c>
-      <c r="X48" t="s">
-        <v>363</v>
-      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
     </row>
     <row r="49">
@@ -4799,7 +5504,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -4808,34 +5513,32 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="J49" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="K49" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="L49" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
-      <c r="N49" t="s"/>
-      <c r="O49" t="s"/>
+      <c r="N49" t="s">
+        <v>357</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
       <c r="P49" t="n">
         <v>5</v>
       </c>
-      <c r="Q49" t="n">
-        <v>5</v>
-      </c>
-      <c r="R49" t="n">
-        <v>5</v>
-      </c>
-      <c r="S49" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
         <v>5</v>
@@ -4843,14 +5546,10 @@
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s">
-        <v>370</v>
-      </c>
-      <c r="X49" t="s">
-        <v>371</v>
-      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
     </row>
     <row r="50">
@@ -4866,7 +5565,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -4875,35 +5574,31 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="J50" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="K50" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="L50" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="O50" t="s">
         <v>53</v>
       </c>
       <c r="P50" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>4</v>
-      </c>
-      <c r="R50" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
       <c r="S50" t="n">
         <v>4</v>
       </c>
@@ -4917,7 +5612,7 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
     </row>
     <row r="51">
@@ -4933,7 +5628,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -4942,49 +5637,45 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="J51" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="K51" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="L51" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="s"/>
-      <c r="O51" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>363</v>
+      </c>
+      <c r="O51" t="s">
+        <v>143</v>
+      </c>
       <c r="P51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q51" t="n">
-        <v>1</v>
-      </c>
-      <c r="R51" t="n">
-        <v>2</v>
-      </c>
-      <c r="S51" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s">
-        <v>385</v>
-      </c>
-      <c r="X51" t="s">
-        <v>386</v>
-      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
     </row>
     <row r="52">
@@ -5000,7 +5691,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5009,53 +5700,39 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="J52" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="K52" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="L52" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="M52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="O52" t="s">
-        <v>105</v>
-      </c>
-      <c r="P52" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>3</v>
-      </c>
-      <c r="R52" t="n">
-        <v>4</v>
-      </c>
-      <c r="S52" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
-      <c r="U52" t="n">
-        <v>3</v>
-      </c>
+      <c r="U52" t="s"/>
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s">
-        <v>385</v>
-      </c>
-      <c r="X52" t="s">
-        <v>386</v>
-      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
     </row>
     <row r="53">
@@ -5071,7 +5748,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5080,41 +5757,37 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="J53" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="K53" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="L53" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>399</v>
+        <v>317</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
-      </c>
-      <c r="P53" t="n">
-        <v>4</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="P53" t="s"/>
       <c r="Q53" t="n">
         <v>4</v>
       </c>
       <c r="R53" t="n">
-        <v>4</v>
-      </c>
-      <c r="S53" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S53" t="s"/>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
@@ -5122,7 +5795,7 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
     </row>
     <row r="54">
@@ -5138,7 +5811,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5147,38 +5820,32 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="J54" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="K54" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="L54" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="M54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>405</v>
+        <v>317</v>
       </c>
       <c r="O54" t="s">
-        <v>105</v>
-      </c>
-      <c r="P54" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P54" t="s"/>
       <c r="Q54" t="n">
-        <v>4</v>
-      </c>
-      <c r="R54" t="n">
-        <v>4</v>
-      </c>
-      <c r="S54" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
         <v>5</v>
@@ -5189,7 +5856,7 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
     </row>
     <row r="55">
@@ -5205,7 +5872,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5214,45 +5881,43 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="J55" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="K55" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="L55" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>411</v>
+        <v>317</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
-      </c>
-      <c r="P55" t="n">
-        <v>4</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
       <c r="R55" t="s"/>
-      <c r="S55" t="n">
-        <v>4</v>
-      </c>
+      <c r="S55" t="s"/>
       <c r="T55" t="s"/>
-      <c r="U55" t="n">
-        <v>5</v>
-      </c>
+      <c r="U55" t="s"/>
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
+      <c r="W55" t="s">
+        <v>391</v>
+      </c>
+      <c r="X55" t="s">
+        <v>392</v>
+      </c>
       <c r="Y55" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
     </row>
     <row r="56">
@@ -5268,7 +5933,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5277,49 +5942,39 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="J56" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="K56" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="L56" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="M56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="O56" t="s">
-        <v>105</v>
-      </c>
-      <c r="P56" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>5</v>
-      </c>
-      <c r="R56" t="n">
-        <v>5</v>
-      </c>
-      <c r="S56" t="n">
-        <v>5</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
       <c r="T56" t="s"/>
-      <c r="U56" t="n">
-        <v>5</v>
-      </c>
+      <c r="U56" t="s"/>
       <c r="V56" t="n">
         <v>0</v>
       </c>
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
     </row>
     <row r="57">
@@ -5335,7 +5990,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5344,49 +5999,39 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="J57" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="K57" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="L57" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="M57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>424</v>
+        <v>399</v>
       </c>
       <c r="O57" t="s">
-        <v>66</v>
-      </c>
-      <c r="P57" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>4</v>
-      </c>
-      <c r="R57" t="n">
-        <v>4</v>
-      </c>
-      <c r="S57" t="n">
-        <v>5</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
       <c r="T57" t="s"/>
-      <c r="U57" t="n">
-        <v>3</v>
-      </c>
+      <c r="U57" t="s"/>
       <c r="V57" t="n">
         <v>0</v>
       </c>
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
     </row>
     <row r="58">
@@ -5402,7 +6047,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5411,41 +6056,35 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="J58" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="K58" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="L58" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
       <c r="O58" t="s">
         <v>53</v>
       </c>
-      <c r="P58" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>5</v>
-      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
       <c r="R58" t="n">
-        <v>5</v>
-      </c>
-      <c r="S58" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S58" t="s"/>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
@@ -5453,7 +6092,7 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
     </row>
     <row r="59">
@@ -5469,7 +6108,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5478,38 +6117,32 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="J59" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="K59" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="L59" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="O59" t="s">
         <v>53</v>
       </c>
-      <c r="P59" t="n">
-        <v>5</v>
-      </c>
+      <c r="P59" t="s"/>
       <c r="Q59" t="n">
         <v>5</v>
       </c>
-      <c r="R59" t="n">
-        <v>5</v>
-      </c>
-      <c r="S59" t="n">
-        <v>5</v>
-      </c>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
         <v>5</v>
@@ -5520,7 +6153,7 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
     </row>
     <row r="60">
@@ -5536,7 +6169,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -5545,26 +6178,22 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="J60" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="K60" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="L60" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="M60" t="n">
-        <v>5</v>
-      </c>
-      <c r="N60" t="s">
-        <v>437</v>
-      </c>
-      <c r="O60" t="s">
-        <v>53</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
       <c r="P60" t="n">
         <v>5</v>
       </c>
@@ -5575,7 +6204,7 @@
         <v>5</v>
       </c>
       <c r="S60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
@@ -5587,7 +6216,2683 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>426</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>427</v>
+      </c>
+      <c r="J61" t="s">
+        <v>428</v>
+      </c>
+      <c r="K61" t="s">
+        <v>429</v>
+      </c>
+      <c r="L61" t="s">
+        <v>430</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>431</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>432</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>433</v>
+      </c>
+      <c r="J62" t="s">
+        <v>434</v>
+      </c>
+      <c r="K62" t="s">
+        <v>435</v>
+      </c>
+      <c r="L62" t="s">
+        <v>436</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>437</v>
+      </c>
+      <c r="O62" t="s">
+        <v>143</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>438</v>
+      </c>
+      <c r="X62" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>441</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>442</v>
+      </c>
+      <c r="J63" t="s">
+        <v>443</v>
+      </c>
+      <c r="K63" t="s">
         <v>444</v>
+      </c>
+      <c r="L63" t="s">
+        <v>445</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>437</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="s"/>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>446</v>
+      </c>
+      <c r="X63" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>449</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>450</v>
+      </c>
+      <c r="J64" t="s">
+        <v>451</v>
+      </c>
+      <c r="K64" t="s">
+        <v>452</v>
+      </c>
+      <c r="L64" t="s">
+        <v>453</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>345</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>454</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>455</v>
+      </c>
+      <c r="J65" t="s">
+        <v>456</v>
+      </c>
+      <c r="K65" t="s">
+        <v>457</v>
+      </c>
+      <c r="L65" t="s">
+        <v>458</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>459</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>460</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>461</v>
+      </c>
+      <c r="J66" t="s">
+        <v>462</v>
+      </c>
+      <c r="K66" t="s">
+        <v>463</v>
+      </c>
+      <c r="L66" t="s">
+        <v>464</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>465</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>467</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>468</v>
+      </c>
+      <c r="J67" t="s">
+        <v>469</v>
+      </c>
+      <c r="K67" t="s">
+        <v>470</v>
+      </c>
+      <c r="L67" t="s">
+        <v>471</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>431</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>473</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>474</v>
+      </c>
+      <c r="J68" t="s">
+        <v>475</v>
+      </c>
+      <c r="K68" t="s">
+        <v>476</v>
+      </c>
+      <c r="L68" t="s">
+        <v>477</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>431</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>478</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>479</v>
+      </c>
+      <c r="J69" t="s">
+        <v>480</v>
+      </c>
+      <c r="K69" t="s">
+        <v>481</v>
+      </c>
+      <c r="L69" t="s">
+        <v>482</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>459</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>483</v>
+      </c>
+      <c r="X69" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>486</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>487</v>
+      </c>
+      <c r="J70" t="s">
+        <v>488</v>
+      </c>
+      <c r="K70" t="s">
+        <v>489</v>
+      </c>
+      <c r="L70" t="s">
+        <v>490</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>491</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>493</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>494</v>
+      </c>
+      <c r="J71" t="s">
+        <v>495</v>
+      </c>
+      <c r="K71" t="s">
+        <v>496</v>
+      </c>
+      <c r="L71" t="s">
+        <v>497</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>491</v>
+      </c>
+      <c r="O71" t="s">
+        <v>143</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>498</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>499</v>
+      </c>
+      <c r="J72" t="s">
+        <v>500</v>
+      </c>
+      <c r="K72" t="s">
+        <v>501</v>
+      </c>
+      <c r="L72" t="s">
+        <v>502</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>503</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>505</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>506</v>
+      </c>
+      <c r="J73" t="s">
+        <v>507</v>
+      </c>
+      <c r="K73" t="s">
+        <v>508</v>
+      </c>
+      <c r="L73" t="s">
+        <v>509</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>510</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>511</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>512</v>
+      </c>
+      <c r="J74" t="s">
+        <v>513</v>
+      </c>
+      <c r="K74" t="s">
+        <v>514</v>
+      </c>
+      <c r="L74" t="s">
+        <v>515</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>516</v>
+      </c>
+      <c r="O74" t="s">
+        <v>143</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>517</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>518</v>
+      </c>
+      <c r="J75" t="s">
+        <v>519</v>
+      </c>
+      <c r="K75" t="s">
+        <v>520</v>
+      </c>
+      <c r="L75" t="s">
+        <v>521</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>522</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>523</v>
+      </c>
+      <c r="X75" t="s">
+        <v>524</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>526</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>527</v>
+      </c>
+      <c r="J76" t="s">
+        <v>528</v>
+      </c>
+      <c r="K76" t="s">
+        <v>529</v>
+      </c>
+      <c r="L76" t="s">
+        <v>530</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>531</v>
+      </c>
+      <c r="O76" t="s">
+        <v>143</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>532</v>
+      </c>
+      <c r="X76" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>535</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>536</v>
+      </c>
+      <c r="J77" t="s">
+        <v>537</v>
+      </c>
+      <c r="K77" t="s">
+        <v>538</v>
+      </c>
+      <c r="L77" t="s">
+        <v>539</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>540</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>532</v>
+      </c>
+      <c r="X77" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>542</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>543</v>
+      </c>
+      <c r="J78" t="s">
+        <v>544</v>
+      </c>
+      <c r="K78" t="s">
+        <v>545</v>
+      </c>
+      <c r="L78" t="s">
+        <v>546</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>547</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>548</v>
+      </c>
+      <c r="X78" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>551</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>552</v>
+      </c>
+      <c r="J79" t="s">
+        <v>553</v>
+      </c>
+      <c r="K79" t="s">
+        <v>554</v>
+      </c>
+      <c r="L79" t="s">
+        <v>555</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>556</v>
+      </c>
+      <c r="O79" t="s">
+        <v>205</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>557</v>
+      </c>
+      <c r="X79" t="s">
+        <v>558</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>560</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>561</v>
+      </c>
+      <c r="J80" t="s">
+        <v>562</v>
+      </c>
+      <c r="K80" t="s">
+        <v>563</v>
+      </c>
+      <c r="L80" t="s">
+        <v>564</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>565</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>566</v>
+      </c>
+      <c r="X80" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>569</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>570</v>
+      </c>
+      <c r="J81" t="s">
+        <v>571</v>
+      </c>
+      <c r="K81" t="s">
+        <v>572</v>
+      </c>
+      <c r="L81" t="s">
+        <v>573</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s"/>
+      <c r="O81" t="s"/>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>574</v>
+      </c>
+      <c r="X81" t="s">
+        <v>575</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>577</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>578</v>
+      </c>
+      <c r="J82" t="s">
+        <v>579</v>
+      </c>
+      <c r="K82" t="s">
+        <v>580</v>
+      </c>
+      <c r="L82" t="s">
+        <v>581</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>547</v>
+      </c>
+      <c r="O82" t="s">
+        <v>143</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>582</v>
+      </c>
+      <c r="X82" t="s">
+        <v>583</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>585</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>586</v>
+      </c>
+      <c r="J83" t="s">
+        <v>587</v>
+      </c>
+      <c r="K83" t="s">
+        <v>588</v>
+      </c>
+      <c r="L83" t="s">
+        <v>589</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>547</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>590</v>
+      </c>
+      <c r="X83" t="s">
+        <v>591</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>593</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>594</v>
+      </c>
+      <c r="J84" t="s">
+        <v>595</v>
+      </c>
+      <c r="K84" t="s">
+        <v>596</v>
+      </c>
+      <c r="L84" t="s">
+        <v>597</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>598</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>600</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>601</v>
+      </c>
+      <c r="J85" t="s">
+        <v>602</v>
+      </c>
+      <c r="K85" t="s">
+        <v>603</v>
+      </c>
+      <c r="L85" t="s">
+        <v>604</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="s"/>
+      <c r="O85" t="s"/>
+      <c r="P85" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>1</v>
+      </c>
+      <c r="R85" t="n">
+        <v>2</v>
+      </c>
+      <c r="S85" t="n">
+        <v>2</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>1</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>605</v>
+      </c>
+      <c r="X85" t="s">
+        <v>606</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>608</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>609</v>
+      </c>
+      <c r="J86" t="s">
+        <v>610</v>
+      </c>
+      <c r="K86" t="s">
+        <v>611</v>
+      </c>
+      <c r="L86" t="s">
+        <v>612</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s">
+        <v>598</v>
+      </c>
+      <c r="O86" t="s">
+        <v>143</v>
+      </c>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>3</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>605</v>
+      </c>
+      <c r="X86" t="s">
+        <v>606</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>614</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>615</v>
+      </c>
+      <c r="J87" t="s">
+        <v>616</v>
+      </c>
+      <c r="K87" t="s">
+        <v>617</v>
+      </c>
+      <c r="L87" t="s">
+        <v>618</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" t="s"/>
+      <c r="O87" t="s"/>
+      <c r="P87" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>3</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>619</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>620</v>
+      </c>
+      <c r="J88" t="s">
+        <v>621</v>
+      </c>
+      <c r="K88" t="s">
+        <v>622</v>
+      </c>
+      <c r="L88" t="s">
+        <v>623</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>624</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>625</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>626</v>
+      </c>
+      <c r="J89" t="s">
+        <v>627</v>
+      </c>
+      <c r="K89" t="s">
+        <v>628</v>
+      </c>
+      <c r="L89" t="s">
+        <v>629</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>624</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>630</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>631</v>
+      </c>
+      <c r="J90" t="s">
+        <v>632</v>
+      </c>
+      <c r="K90" t="s">
+        <v>633</v>
+      </c>
+      <c r="L90" t="s">
+        <v>634</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>635</v>
+      </c>
+      <c r="O90" t="s">
+        <v>143</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>636</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>637</v>
+      </c>
+      <c r="J91" t="s">
+        <v>638</v>
+      </c>
+      <c r="K91" t="s">
+        <v>639</v>
+      </c>
+      <c r="L91" t="s">
+        <v>640</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>641</v>
+      </c>
+      <c r="O91" t="s">
+        <v>53</v>
+      </c>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>642</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>643</v>
+      </c>
+      <c r="J92" t="s">
+        <v>644</v>
+      </c>
+      <c r="K92" t="s">
+        <v>645</v>
+      </c>
+      <c r="L92" t="s">
+        <v>646</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>647</v>
+      </c>
+      <c r="O92" t="s">
+        <v>205</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>649</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>650</v>
+      </c>
+      <c r="J93" t="s">
+        <v>651</v>
+      </c>
+      <c r="K93" t="s">
+        <v>652</v>
+      </c>
+      <c r="L93" t="s">
+        <v>653</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s"/>
+      <c r="O93" t="s"/>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>654</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>655</v>
+      </c>
+      <c r="J94" t="s">
+        <v>656</v>
+      </c>
+      <c r="K94" t="s">
+        <v>657</v>
+      </c>
+      <c r="L94" t="s">
+        <v>658</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>659</v>
+      </c>
+      <c r="O94" t="s">
+        <v>143</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>661</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>662</v>
+      </c>
+      <c r="J95" t="s">
+        <v>663</v>
+      </c>
+      <c r="K95" t="s">
+        <v>664</v>
+      </c>
+      <c r="L95" t="s">
+        <v>665</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>666</v>
+      </c>
+      <c r="O95" t="s">
+        <v>81</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>4</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>3</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>668</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>669</v>
+      </c>
+      <c r="J96" t="s">
+        <v>670</v>
+      </c>
+      <c r="K96" t="s">
+        <v>671</v>
+      </c>
+      <c r="L96" t="s">
+        <v>672</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>673</v>
+      </c>
+      <c r="O96" t="s">
+        <v>53</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>674</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>675</v>
+      </c>
+      <c r="J97" t="s">
+        <v>676</v>
+      </c>
+      <c r="K97" t="s">
+        <v>677</v>
+      </c>
+      <c r="L97" t="s">
+        <v>678</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>679</v>
+      </c>
+      <c r="O97" t="s">
+        <v>143</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>680</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>681</v>
+      </c>
+      <c r="J98" t="s">
+        <v>682</v>
+      </c>
+      <c r="K98" t="s">
+        <v>683</v>
+      </c>
+      <c r="L98" t="s">
+        <v>684</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s"/>
+      <c r="O98" t="s"/>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="n">
+        <v>4</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>685</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>686</v>
+      </c>
+      <c r="J99" t="s">
+        <v>687</v>
+      </c>
+      <c r="K99" t="s">
+        <v>688</v>
+      </c>
+      <c r="L99" t="s">
+        <v>689</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>690</v>
+      </c>
+      <c r="O99" t="s">
+        <v>53</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>53328</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>692</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>693</v>
+      </c>
+      <c r="J100" t="s">
+        <v>694</v>
+      </c>
+      <c r="K100" t="s">
+        <v>695</v>
+      </c>
+      <c r="L100" t="s">
+        <v>696</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>690</v>
+      </c>
+      <c r="O100" t="s">
+        <v>53</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>697</v>
       </c>
     </row>
   </sheetData>
